--- a/data/LanguageFamily.xlsx
+++ b/data/LanguageFamily.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutoozaki/GitRepo/song-speech-analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03320169-D939-9A49-B878-DB1BE34BF0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3AE73-F69B-994B-878E-9099FAA076E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="シート2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
   <si>
     <t>Afro-Asiatic</t>
   </si>
@@ -233,13 +234,16 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>Irish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -275,8 +279,27 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +394,96 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE599"/>
         <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8766D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE58700"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC99800"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3A500"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6BB100"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BA38"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BF7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00C0AF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BCD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF619CFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB983FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE76BF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD61D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF67A4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -386,11 +499,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,16 +563,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF67A4"/>
+      <color rgb="FFFD61D1"/>
+      <color rgb="FFE76BF3"/>
+      <color rgb="FFB983FF"/>
+      <color rgb="FF619CFF"/>
+      <color rgb="FF00B0F6"/>
+      <color rgb="FF00BCD8"/>
+      <color rgb="FF00C0AF"/>
+      <color rgb="FF00BF7D"/>
+      <color rgb="FF00BA38"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -472,6 +667,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44AEF20-4B53-0F6E-A103-484CFEC1E507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622300" y="2819400"/>
+          <a:ext cx="7772400" cy="6953250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE60553-57DF-2FE2-59BD-8123324C35DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8917709" y="4588164"/>
+          <a:ext cx="1908464" cy="1693718"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A801A2B-C403-67EE-8052-A45AE61DFC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2438400"/>
+          <a:ext cx="12331700" cy="1625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,631 +1009,631 @@
   </sheetPr>
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="12.6640625" style="2"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="F1" s="37"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>47</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>24</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>48</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="6">
+      <c r="B5" s="36"/>
+      <c r="C5" s="5">
         <v>26</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="34"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>27</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>49</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="6">
+      <c r="B7" s="36"/>
+      <c r="C7" s="5">
         <v>28</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>29</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="33">
         <v>51</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>31</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>32</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>52</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>33</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>53</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>34</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>54</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>35</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>12</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>36</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>55</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>13</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>37</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>14</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>38</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="34">
         <v>56</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>15</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="34">
         <v>57</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>16</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>40</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>17</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>41</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="6">
+      <c r="B21" s="36"/>
+      <c r="C21" s="5">
         <v>42</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <v>18</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+      <c r="A23" s="24">
         <v>19</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+      <c r="A24" s="24">
         <v>20</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>44</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
+      <c r="A26" s="28">
         <v>21</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="30">
         <v>45</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="A27" s="28">
         <v>22</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="30">
         <v>46</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:10" ht="13" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:10" ht="13" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="C31" s="24"/>
+      <c r="C31" s="23"/>
     </row>
     <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="C32" s="24"/>
+      <c r="A32" s="23"/>
+      <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="F33" s="33"/>
+      <c r="A33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
-      <c r="C34" s="24"/>
+      <c r="A34" s="23"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="A35" s="23"/>
+      <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="A36" s="23"/>
+      <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="A37" s="23"/>
+      <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="C38" s="24"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
-      <c r="C39" s="24"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="C40" s="24"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="C41" s="24"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
-      <c r="C42" s="24"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="E43" s="33"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="E44" s="33"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="E45" s="33"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="E46" s="33"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
+      <c r="A38" s="23"/>
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+      <c r="C39" s="23"/>
+    </row>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="23"/>
+      <c r="C41" s="23"/>
+    </row>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="23"/>
+      <c r="C42" s="23"/>
+    </row>
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="E43" s="32"/>
+    </row>
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="E44" s="32"/>
+    </row>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="E45" s="32"/>
+    </row>
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="32"/>
+    </row>
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+    </row>
+    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+    </row>
+    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+    </row>
+    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+    </row>
+    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="23"/>
+    </row>
+    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="23"/>
+    </row>
+    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+    </row>
+    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="23"/>
+    </row>
+    <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="23"/>
+    </row>
+    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="23"/>
+    </row>
+    <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1323,4 +1655,703 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868D2E3B-0766-C744-82F8-32F81605ADC5}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AP59"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="2.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="2.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="4.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20.1640625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="12.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="13" x14ac:dyDescent="0.15">
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+    </row>
+    <row r="2" spans="1:42" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:42" ht="14" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="38"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="38"/>
+    </row>
+    <row r="4" spans="1:42" ht="14" x14ac:dyDescent="0.2">
+      <c r="A4" s="41">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="45">
+        <v>5</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="45">
+        <v>13</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="47">
+        <v>18</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="50">
+        <v>23</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="50">
+        <v>31</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="50">
+        <v>39</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="52">
+        <v>45</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="60">
+        <v>50</v>
+      </c>
+      <c r="R4" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="66">
+        <v>56</v>
+      </c>
+      <c r="T4" s="67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="45">
+        <v>6</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="45">
+        <v>14</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="47">
+        <v>19</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="50">
+        <v>24</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="50">
+        <v>32</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="50">
+        <v>40</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="60">
+        <v>51</v>
+      </c>
+      <c r="R5" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="38"/>
+    </row>
+    <row r="6" spans="1:42" ht="14" x14ac:dyDescent="0.2">
+      <c r="A6" s="41">
+        <v>3</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="45">
+        <v>7</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="45">
+        <v>15</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="47">
+        <v>20</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="50">
+        <v>25</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="50">
+        <v>33</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="50">
+        <v>41</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="54">
+        <v>46</v>
+      </c>
+      <c r="P6" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="38"/>
+      <c r="S6" s="68">
+        <v>57</v>
+      </c>
+      <c r="T6" s="69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="14" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="45">
+        <v>8</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="45">
+        <v>16</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="50">
+        <v>26</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="50">
+        <v>34</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="50">
+        <v>42</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="54">
+        <v>47</v>
+      </c>
+      <c r="P7" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="62">
+        <v>52</v>
+      </c>
+      <c r="R7" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="68">
+        <v>58</v>
+      </c>
+      <c r="T7" s="69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="43">
+        <v>4</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="45">
+        <v>9</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="45">
+        <v>17</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="49">
+        <v>21</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="50">
+        <v>27</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="50">
+        <v>35</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="50">
+        <v>43</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="38"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+    </row>
+    <row r="9" spans="1:42" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="45">
+        <v>10</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="49">
+        <v>22</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="50">
+        <v>28</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="50">
+        <v>36</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="50">
+        <v>44</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="56">
+        <v>48</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="64">
+        <v>53</v>
+      </c>
+      <c r="R9" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+    </row>
+    <row r="10" spans="1:42" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="45">
+        <v>11</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="50">
+        <v>29</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="50">
+        <v>37</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="64">
+        <v>54</v>
+      </c>
+      <c r="R10" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+    </row>
+    <row r="11" spans="1:42" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="45">
+        <v>12</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="50">
+        <v>30</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="50">
+        <v>38</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="58">
+        <v>49</v>
+      </c>
+      <c r="P11" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="64">
+        <v>55</v>
+      </c>
+      <c r="R11" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+    </row>
+    <row r="12" spans="1:42" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+    </row>
+    <row r="13" spans="1:42" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:42" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:42" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:42" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+    </row>
+    <row r="21" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+    </row>
+    <row r="22" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+    </row>
+    <row r="23" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+    </row>
+    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+    </row>
+    <row r="25" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+    </row>
+    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+    </row>
+    <row r="27" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+    </row>
+    <row r="28" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+    </row>
+    <row r="29" spans="1:27" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:27" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:27" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+    </row>
+    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+    </row>
+    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+    </row>
+    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+    </row>
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="23"/>
+    </row>
+    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="23"/>
+    </row>
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
+    </row>
+    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+    </row>
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+    </row>
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="23"/>
+    </row>
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="23"/>
+    </row>
+    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+    </row>
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="23"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="23"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q3:R3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/LanguageFamily.xlsx
+++ b/data/LanguageFamily.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuto\Documents\MATLAB\projects\song-speech-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082B6CF2-5431-4686-823C-A213BE8271C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440D1CD7-D643-47E9-BD19-73BDC5C5A7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LanguageFamily-level" sheetId="5" r:id="rId1"/>
     <sheet name="SubFamily-level" sheetId="6" r:id="rId2"/>
+    <sheet name="SubFamily-level (2)" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="110">
   <si>
     <t>Afro-Asiatic</t>
   </si>
@@ -398,6 +399,50 @@
   </si>
   <si>
     <t>Slavic</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Balinese</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>English [Michigan]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Punjabi (Eastern Panjabi)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Macedonian</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Tai-Kadai</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Thai</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Bantu</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Defoid</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Tano</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Chinese</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Burmese-Lolo</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -470,7 +515,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,8 +654,140 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEC823C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDB8D00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCA9700"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3A000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF97A900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF71B000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2FB600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BB4B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BF76"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00C098"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00C0B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BDD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B7E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00AEFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3DA1FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8F91FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBE80FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDE71F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6C92"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF64B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE61CF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF265E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -638,11 +815,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,9 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -761,22 +944,165 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,16 +1112,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF00A6FF"/>
-      <color rgb="FF7C96FF"/>
-      <color rgb="FFB385FF"/>
-      <color rgb="FFD874FD"/>
-      <color rgb="FFEF67EB"/>
-      <color rgb="FFFD61D3"/>
-      <color rgb="FFFF63B6"/>
-      <color rgb="FFFF6B94"/>
-      <color rgb="FF00B2F3"/>
-      <color rgb="FF00BADE"/>
+      <color rgb="FFDE71F9"/>
+      <color rgb="FFF265E7"/>
+      <color rgb="FFFE61CF"/>
+      <color rgb="FFFF64B3"/>
+      <color rgb="FFFF6C92"/>
+      <color rgb="FFBE80FF"/>
+      <color rgb="FF8F91FF"/>
+      <color rgb="FF3DA1FF"/>
+      <color rgb="FF00AEFA"/>
+      <color rgb="FF00B7E8"/>
     </mruColors>
   </colors>
   <extLst>
@@ -854,6 +1180,72 @@
         <a:xfrm>
           <a:off x="0" y="4371975"/>
           <a:ext cx="10144125" cy="3895725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159C9112-5F20-443D-194E-D97E5C9745EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4572000"/>
+          <a:ext cx="10448925" cy="4095750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1130,18 +1522,18 @@
     </row>
     <row r="2" spans="1:42" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="118"/>
+      <c r="G3" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="118"/>
     </row>
     <row r="4" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
@@ -1150,22 +1542,22 @@
       <c r="B4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>17</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>39</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <v>57</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1176,20 +1568,20 @@
       <c r="B5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="23">
+      <c r="D5" s="118"/>
+      <c r="E5" s="22">
         <v>40</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="118"/>
     </row>
     <row r="6" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -1198,22 +1590,22 @@
       <c r="B6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>18</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>41</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <v>58</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="33" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1224,402 +1616,402 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>19</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>42</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="118"/>
     </row>
     <row r="8" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="23">
+      <c r="B8" s="118"/>
+      <c r="C8" s="22">
         <v>20</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>43</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="48">
         <v>59</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="49" t="s">
         <v>65</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>21</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>44</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="118"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="23">
+      <c r="B10" s="118"/>
+      <c r="C10" s="22">
         <v>22</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>45</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="46">
         <v>60</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="47" t="s">
         <v>82</v>
       </c>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>23</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>46</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="118"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="23">
+      <c r="B12" s="118"/>
+      <c r="C12" s="22">
         <v>24</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>47</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="44">
         <v>61</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="45" t="s">
         <v>67</v>
       </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>25</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>48</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="118"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>26</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>49</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="41">
         <v>62</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="42" t="s">
         <v>69</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>27</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="42">
+      <c r="F15" s="118"/>
+      <c r="G15" s="41">
         <v>63</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="42" t="s">
         <v>68</v>
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>28</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="24">
         <v>50</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="41">
         <v>64</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>47</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>29</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="44">
+      <c r="F17" s="118"/>
+      <c r="G17" s="43">
         <v>65</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="42" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>30</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="26">
         <v>51</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="23">
+      <c r="B19" s="118"/>
+      <c r="C19" s="22">
         <v>31</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="26">
         <v>52</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="39">
         <v>66</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>13</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>32</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <v>53</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="23">
+      <c r="B21" s="118"/>
+      <c r="C21" s="22">
         <v>33</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <v>54</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="36">
         <v>67</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="37" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>14</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>34</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="37">
+      <c r="F22" s="118"/>
+      <c r="G22" s="36">
         <v>68</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="38" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="2"/>
@@ -1629,16 +2021,16 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>15</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>35</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="5">
@@ -1647,58 +2039,58 @@
       <c r="F23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="118"/>
     </row>
     <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="23">
+      <c r="B24" s="118"/>
+      <c r="C24" s="22">
         <v>36</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="35">
+      <c r="F24" s="118"/>
+      <c r="G24" s="34">
         <v>69</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>16</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>37</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="28">
         <v>56</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>38</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1735,6 +2127,12 @@
     <row r="47" spans="9:9" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A21:B21"/>
@@ -1751,12 +2149,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1772,8 +2164,8 @@
   </sheetPr>
   <dimension ref="A1:AR47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1825,25 +2217,25 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:44" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="8" t="s">
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="118"/>
     </row>
     <row r="4" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
@@ -1852,24 +2244,24 @@
       <c r="B4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="63">
+        <v>18</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="F4" s="68">
+        <v>41</v>
+      </c>
+      <c r="G4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23">
-        <v>39</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="31">
-        <v>57</v>
-      </c>
-      <c r="J4" s="32" t="s">
+      <c r="H4" s="69"/>
+      <c r="I4" s="82">
+        <v>61</v>
+      </c>
+      <c r="J4" s="83" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1880,22 +2272,22 @@
       <c r="B5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="23">
-        <v>40</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="8" t="s">
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="68">
+        <v>42</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="69"/>
+      <c r="I5" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:44" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1904,26 +2296,26 @@
       <c r="B6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="53">
-        <v>18</v>
-      </c>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="65">
+        <v>19</v>
+      </c>
+      <c r="D6" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="23">
-        <v>41</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="33">
-        <v>58</v>
-      </c>
-      <c r="J6" s="34" t="s">
+      <c r="F6" s="68">
+        <v>43</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="69"/>
+      <c r="I6" s="84">
+        <v>62</v>
+      </c>
+      <c r="J6" s="85" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1934,538 +2326,576 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="53">
-        <v>19</v>
-      </c>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="65">
+        <v>20</v>
+      </c>
+      <c r="D7" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="23">
-        <v>42</v>
-      </c>
-      <c r="G7" s="24" t="s">
+      <c r="F7" s="68">
+        <v>44</v>
+      </c>
+      <c r="G7" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="118"/>
     </row>
     <row r="8" spans="1:44" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="23">
-        <v>20</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="B8" s="118"/>
+      <c r="C8" s="68">
+        <v>21</v>
+      </c>
+      <c r="D8" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="23">
-        <v>43</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="49">
-        <v>59</v>
-      </c>
-      <c r="J8" s="50" t="s">
+      <c r="F8" s="68">
+        <v>45</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="69"/>
+      <c r="I8" s="86">
+        <v>63</v>
+      </c>
+      <c r="J8" s="87" t="s">
         <v>65</v>
       </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="51">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="23">
-        <v>21</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="68">
+        <v>22</v>
+      </c>
+      <c r="D9" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="23">
-        <v>44</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="8" t="s">
+      <c r="E9" s="69"/>
+      <c r="F9" s="68">
+        <v>46</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="69"/>
+      <c r="I9" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="118"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:44" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="23">
-        <v>22</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="68">
+        <v>23</v>
+      </c>
+      <c r="D10" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="53">
-        <v>45</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="47">
-        <v>60</v>
-      </c>
-      <c r="J10" s="48" t="s">
+      <c r="E10" s="69"/>
+      <c r="F10" s="68">
+        <v>47</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="69"/>
+      <c r="I10" s="88">
+        <v>64</v>
+      </c>
+      <c r="J10" s="89" t="s">
         <v>82</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:44" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+    <row r="11" spans="1:44" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53">
         <v>6</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="23">
-        <v>23</v>
-      </c>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="68">
+        <v>24</v>
+      </c>
+      <c r="D11" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="23">
-        <v>46</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="E11" s="69"/>
+      <c r="F11" s="65">
+        <v>48</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="66"/>
+      <c r="I11" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="118"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:44" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="23">
-        <v>24</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="23">
-        <v>47</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="45">
-        <v>61</v>
-      </c>
-      <c r="J12" s="46" t="s">
+      <c r="B12" s="118"/>
+      <c r="C12" s="68">
+        <v>25</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="69"/>
+      <c r="F12" s="68">
+        <v>49</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="90">
+        <v>65</v>
+      </c>
+      <c r="J12" s="91" t="s">
         <v>67</v>
       </c>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="55">
         <v>7</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="23">
-        <v>25</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="23">
+      <c r="C13" s="68">
+        <v>26</v>
+      </c>
+      <c r="D13" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="8" t="s">
+      <c r="E13" s="69"/>
+      <c r="F13" s="68">
+        <v>50</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="69"/>
+      <c r="I13" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="118"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="55">
         <v>8</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="23">
-        <v>26</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23">
+      <c r="C14" s="68">
+        <v>27</v>
+      </c>
+      <c r="D14" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="42">
-        <v>62</v>
-      </c>
-      <c r="J14" s="43" t="s">
+      <c r="E14" s="69"/>
+      <c r="F14" s="68">
+        <v>51</v>
+      </c>
+      <c r="G14" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="69"/>
+      <c r="I14" s="92">
+        <v>66</v>
+      </c>
+      <c r="J14" s="93" t="s">
         <v>69</v>
       </c>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
     <row r="15" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="55">
         <v>9</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="23">
-        <v>27</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="42">
-        <v>63</v>
-      </c>
-      <c r="J15" s="43" t="s">
+      <c r="C15" s="68">
+        <v>28</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="69"/>
+      <c r="F15" s="68">
+        <v>52</v>
+      </c>
+      <c r="G15" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="69"/>
+      <c r="I15" s="92">
+        <v>67</v>
+      </c>
+      <c r="J15" s="93" t="s">
         <v>68</v>
       </c>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="55">
         <v>10</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="23">
-        <v>28</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25">
-        <v>50</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="42">
-        <v>64</v>
-      </c>
-      <c r="J16" s="43" t="s">
+      <c r="C16" s="68">
+        <v>29</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="69"/>
+      <c r="F16" s="68">
+        <v>53</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="69"/>
+      <c r="I16" s="92">
+        <v>68</v>
+      </c>
+      <c r="J16" s="93" t="s">
         <v>47</v>
       </c>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="55">
         <v>11</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="68">
+        <v>30</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="69"/>
+      <c r="F17" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="94">
+        <v>69</v>
+      </c>
+      <c r="J17" s="93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55">
+        <v>12</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="68">
+        <v>31</v>
+      </c>
+      <c r="D18" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="8" t="s">
+      <c r="E18" s="69"/>
+      <c r="F18" s="74">
+        <v>54</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="75"/>
+      <c r="I18" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="118"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="118"/>
+      <c r="C19" s="68">
+        <v>32</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="69"/>
+      <c r="F19" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="44">
-        <v>65</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>12</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="23">
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="102">
+        <v>70</v>
+      </c>
+      <c r="J19" s="103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
+        <v>13</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="65">
+        <v>33</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="76">
+        <v>55</v>
+      </c>
+      <c r="G20" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="77"/>
+      <c r="I20" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="118"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57">
+        <v>14</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="71">
+        <v>34</v>
+      </c>
+      <c r="D21" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="27">
-        <v>51</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="53">
-        <v>31</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="27">
-        <v>52</v>
-      </c>
-      <c r="G19" s="28" t="s">
+      <c r="E21" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="76">
+        <v>56</v>
+      </c>
+      <c r="G21" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="40">
-        <v>66</v>
-      </c>
-      <c r="J19" s="41" t="s">
+      <c r="H21" s="77"/>
+      <c r="I21" s="100">
+        <v>71</v>
+      </c>
+      <c r="J21" s="101" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>13</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="56">
-        <v>32</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="27">
+    <row r="22" spans="1:16" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="118"/>
+      <c r="C22" s="68">
+        <v>35</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="76">
+        <v>57</v>
+      </c>
+      <c r="G22" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="8" t="s">
+      <c r="H22" s="77"/>
+      <c r="I22" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="23">
-        <v>33</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="27">
-        <v>54</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="37">
-        <v>67</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
-        <v>14</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="53">
-        <v>34</v>
-      </c>
-      <c r="D22" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="37">
-        <v>68</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>16</v>
-      </c>
+      <c r="J22" s="118"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
+    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="59">
         <v>15</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="68">
+        <v>36</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="69"/>
+      <c r="F23" s="76">
+        <v>58</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="77"/>
+      <c r="I23" s="97">
+        <v>72</v>
+      </c>
+      <c r="J23" s="98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59">
+        <v>16</v>
+      </c>
+      <c r="B24" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="23">
-        <v>35</v>
-      </c>
-      <c r="D23" s="24" t="s">
+      <c r="C24" s="65">
+        <v>37</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="66"/>
+      <c r="F24" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="97">
+        <v>73</v>
+      </c>
+      <c r="J24" s="99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="118"/>
+      <c r="C25" s="68">
+        <v>38</v>
+      </c>
+      <c r="D25" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E25" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="5">
-        <v>55</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="F25" s="78">
+        <v>59</v>
+      </c>
+      <c r="G25" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="8" t="s">
+      <c r="H25" s="79"/>
+      <c r="I25" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="53">
-        <v>36</v>
-      </c>
-      <c r="D24" s="54" t="s">
+      <c r="J25" s="118"/>
+    </row>
+    <row r="26" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="61">
+        <v>17</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="65">
+        <v>39</v>
+      </c>
+      <c r="D26" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="8" t="s">
+      <c r="E26" s="66"/>
+      <c r="F26" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="35">
-        <v>69</v>
-      </c>
-      <c r="J24" s="36" t="s">
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="95">
+        <v>74</v>
+      </c>
+      <c r="J26" s="96" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
-        <v>16</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="23">
-        <v>37</v>
-      </c>
-      <c r="D25" s="24" t="s">
+    <row r="27" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="68">
+        <v>40</v>
+      </c>
+      <c r="D27" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E27" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="29">
-        <v>56</v>
-      </c>
-      <c r="G25" s="30" t="s">
+      <c r="F27" s="80">
+        <v>60</v>
+      </c>
+      <c r="G27" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="30"/>
-    </row>
-    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C26" s="23">
-        <v>38</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="H27" s="81"/>
+    </row>
     <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -2497,32 +2927,897 @@
     <row r="46" spans="11:11" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="47" spans="11:11" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F15:H15"/>
+  <mergeCells count="23">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F19:H19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D56EAD0-EB25-4A4E-9EC4-C37E9FF0785F}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AT47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" customWidth="1"/>
+    <col min="14" max="14" width="33.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" customWidth="1"/>
+    <col min="16" max="16" width="33.7109375" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" customWidth="1"/>
+    <col min="18" max="18" width="33.7109375" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" customWidth="1"/>
+    <col min="20" max="20" width="33.7109375" customWidth="1"/>
+    <col min="21" max="21" width="2.85546875" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" customWidth="1"/>
+    <col min="23" max="23" width="2.85546875" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" customWidth="1"/>
+    <col min="25" max="25" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.140625" customWidth="1"/>
+    <col min="28" max="28" width="4.42578125" customWidth="1"/>
+    <col min="29" max="29" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+    </row>
+    <row r="2" spans="1:46" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="3" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+    </row>
+    <row r="4" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="63">
+        <v>18</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="64"/>
+      <c r="G4" s="68">
+        <v>41</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="69"/>
+      <c r="J4" s="82">
+        <v>61</v>
+      </c>
+      <c r="K4" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="83"/>
+    </row>
+    <row r="5" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="68">
+        <v>42</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="69"/>
+      <c r="J5" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+    </row>
+    <row r="6" spans="1:46" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="65">
+        <v>19</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="68">
+        <v>43</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="69"/>
+      <c r="J6" s="84">
+        <v>62</v>
+      </c>
+      <c r="K6" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="85"/>
+    </row>
+    <row r="7" spans="1:46" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="65">
+        <v>20</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="68">
+        <v>44</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+    </row>
+    <row r="8" spans="1:46" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="68">
+        <v>21</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="68">
+        <v>45</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="86">
+        <v>63</v>
+      </c>
+      <c r="K8" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="87"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+    </row>
+    <row r="9" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="51">
+        <v>5</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="68">
+        <v>22</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="69"/>
+      <c r="G9" s="68">
+        <v>46</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="69"/>
+      <c r="J9" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+    </row>
+    <row r="10" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="68">
+        <v>23</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="G10" s="68">
+        <v>47</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="69"/>
+      <c r="J10" s="88">
+        <v>64</v>
+      </c>
+      <c r="K10" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="89"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+    </row>
+    <row r="11" spans="1:46" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53">
+        <v>6</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="68">
+        <v>24</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="69"/>
+      <c r="G11" s="65">
+        <v>48</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="66"/>
+      <c r="J11" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:46" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="68">
+        <v>25</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="69"/>
+      <c r="G12" s="68">
+        <v>49</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="90">
+        <v>65</v>
+      </c>
+      <c r="K12" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="91"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55">
+        <v>7</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="68">
+        <v>26</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="69"/>
+      <c r="G13" s="68">
+        <v>50</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="69"/>
+      <c r="J13" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" spans="1:46" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="104">
+        <v>8</v>
+      </c>
+      <c r="B14" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="109"/>
+      <c r="D14" s="68">
+        <v>27</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="69"/>
+      <c r="G14" s="68">
+        <v>51</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="69"/>
+      <c r="J14" s="111">
+        <v>66</v>
+      </c>
+      <c r="K14" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" spans="1:46" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="106">
+        <v>9</v>
+      </c>
+      <c r="B15" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="68">
+        <v>28</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="69"/>
+      <c r="G15" s="68">
+        <v>52</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="69"/>
+      <c r="J15" s="115">
+        <v>67</v>
+      </c>
+      <c r="K15" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" spans="1:46" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55">
+        <v>10</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="68">
+        <v>29</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="69"/>
+      <c r="G16" s="68">
+        <v>53</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="69"/>
+      <c r="J16" s="92">
+        <v>68</v>
+      </c>
+      <c r="K16" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="113"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="104">
+        <v>11</v>
+      </c>
+      <c r="B17" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="109"/>
+      <c r="D17" s="68">
+        <v>30</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="69"/>
+      <c r="G17" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="94">
+        <v>69</v>
+      </c>
+      <c r="K17" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="93"/>
+    </row>
+    <row r="18" spans="1:18" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55">
+        <v>12</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="68">
+        <v>31</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="69"/>
+      <c r="G18" s="74">
+        <v>54</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="75"/>
+      <c r="J18" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+    </row>
+    <row r="19" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="68">
+        <v>32</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="69"/>
+      <c r="G19" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="102">
+        <v>70</v>
+      </c>
+      <c r="K19" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="103"/>
+    </row>
+    <row r="20" spans="1:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
+        <v>13</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="65">
+        <v>33</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="66"/>
+      <c r="G20" s="76">
+        <v>55</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="77"/>
+      <c r="J20" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+    </row>
+    <row r="21" spans="1:18" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57">
+        <v>14</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="71">
+        <v>34</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="76">
+        <v>56</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="77"/>
+      <c r="J21" s="100">
+        <v>71</v>
+      </c>
+      <c r="K21" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="101"/>
+    </row>
+    <row r="22" spans="1:18" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="68">
+        <v>35</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="76">
+        <v>57</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="77"/>
+      <c r="J22" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="59">
+        <v>15</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="68">
+        <v>36</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="69"/>
+      <c r="G23" s="76">
+        <v>58</v>
+      </c>
+      <c r="H23" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="77"/>
+      <c r="J23" s="97">
+        <v>72</v>
+      </c>
+      <c r="K23" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="98"/>
+    </row>
+    <row r="24" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59">
+        <v>16</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="65">
+        <v>37</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="66"/>
+      <c r="G24" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="97">
+        <v>73</v>
+      </c>
+      <c r="K24" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="99"/>
+    </row>
+    <row r="25" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="68">
+        <v>38</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="78">
+        <v>59</v>
+      </c>
+      <c r="H25" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="79"/>
+      <c r="J25" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+    </row>
+    <row r="26" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="61">
+        <v>17</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="65">
+        <v>39</v>
+      </c>
+      <c r="E26" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="66"/>
+      <c r="G26" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="95">
+        <v>74</v>
+      </c>
+      <c r="K26" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="96"/>
+    </row>
+    <row r="27" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="68">
+        <v>40</v>
+      </c>
+      <c r="E27" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="80">
+        <v>60</v>
+      </c>
+      <c r="H27" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="81"/>
+    </row>
+    <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/data/LanguageFamily.xlsx
+++ b/data/LanguageFamily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuto\Documents\MATLAB\projects\song-speech-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440D1CD7-D643-47E9-BD19-73BDC5C5A7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4BE660-C4FA-4757-A176-92BB02DF85CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="113">
   <si>
     <t>Afro-Asiatic</t>
   </si>
@@ -443,6 +443,18 @@
   </si>
   <si>
     <t>Burmese-Lolo</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Spanish [Osorno]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Cantonese (Yue Chinese) [Ontario]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Cantonese (Yue Chinese) [Hong Kong]</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -828,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1104,6 +1116,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1180,72 +1193,6 @@
         <a:xfrm>
           <a:off x="0" y="4371975"/>
           <a:ext cx="10144125" cy="3895725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159C9112-5F20-443D-194E-D97E5C9745EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4572000"/>
-          <a:ext cx="10448925" cy="4095750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2127,12 +2074,6 @@
     <row r="47" spans="9:9" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A21:B21"/>
@@ -2149,6 +2090,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2928,12 +2875,13 @@
     <row r="47" spans="11:11" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="A8:B8"/>
@@ -2944,13 +2892,12 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2963,10 +2910,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AT47"/>
+  <dimension ref="A1:AU47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2982,28 +2929,28 @@
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="2.85546875" customWidth="1"/>
     <col min="11" max="11" width="24.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" customWidth="1"/>
-    <col min="14" max="14" width="33.7109375" customWidth="1"/>
-    <col min="15" max="15" width="2.85546875" customWidth="1"/>
-    <col min="16" max="16" width="33.7109375" customWidth="1"/>
-    <col min="17" max="17" width="2.85546875" customWidth="1"/>
-    <col min="18" max="18" width="33.7109375" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" customWidth="1"/>
-    <col min="20" max="20" width="33.7109375" customWidth="1"/>
-    <col min="21" max="21" width="2.85546875" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" customWidth="1"/>
-    <col min="23" max="23" width="2.85546875" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" customWidth="1"/>
-    <col min="25" max="25" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.140625" customWidth="1"/>
-    <col min="28" max="28" width="4.42578125" customWidth="1"/>
-    <col min="29" max="29" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="2.85546875" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" customWidth="1"/>
+    <col min="17" max="17" width="33.7109375" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" customWidth="1"/>
+    <col min="19" max="19" width="33.7109375" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" customWidth="1"/>
+    <col min="21" max="21" width="33.7109375" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" customWidth="1"/>
+    <col min="24" max="24" width="2.85546875" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" customWidth="1"/>
+    <col min="26" max="26" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.140625" customWidth="1"/>
+    <col min="29" max="29" width="4.42578125" customWidth="1"/>
+    <col min="30" max="30" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="AF1" s="1"/>
+    <row r="1" spans="1:47" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -3018,31 +2965,33 @@
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
-    </row>
-    <row r="2" spans="1:46" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AU1" s="1"/>
+    </row>
+    <row r="2" spans="1:47" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
     </row>
-    <row r="3" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="118" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="118"/>
       <c r="C3" s="118"/>
       <c r="D3" s="118" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
       <c r="J3" s="118" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="K3" s="118"/>
       <c r="L3" s="118"/>
-    </row>
-    <row r="4" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="118"/>
+    </row>
+    <row r="4" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3050,29 +2999,32 @@
         <v>73</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="63">
-        <v>18</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="64"/>
+      <c r="D4" s="65">
+        <v>19</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>92</v>
+      </c>
       <c r="G4" s="68">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I4" s="69"/>
-      <c r="J4" s="82">
-        <v>61</v>
-      </c>
-      <c r="K4" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="83"/>
-    </row>
-    <row r="5" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="84">
+        <v>63</v>
+      </c>
+      <c r="K4" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+    </row>
+    <row r="5" spans="1:47" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -3080,25 +3032,30 @@
         <v>74</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
+      <c r="D5" s="65">
+        <v>20</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>93</v>
+      </c>
       <c r="G5" s="68">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I5" s="69"/>
       <c r="J5" s="118" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="K5" s="118"/>
       <c r="L5" s="118"/>
-    </row>
-    <row r="6" spans="1:46" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="118"/>
+    </row>
+    <row r="6" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -3106,31 +3063,32 @@
         <v>75</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="65">
-        <v>19</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>92</v>
+      <c r="D6" s="68">
+        <v>21</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>94</v>
       </c>
       <c r="G6" s="68">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="I6" s="69"/>
-      <c r="J6" s="84">
-        <v>62</v>
-      </c>
-      <c r="K6" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="85"/>
-    </row>
-    <row r="7" spans="1:46" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="86">
+        <v>64</v>
+      </c>
+      <c r="K6" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+    </row>
+    <row r="7" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -3138,61 +3096,59 @@
         <v>44</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="65">
-        <v>20</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>93</v>
-      </c>
+      <c r="D7" s="68">
+        <v>22</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="69"/>
       <c r="G7" s="68">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I7" s="69"/>
       <c r="J7" s="118" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="K7" s="118"/>
       <c r="L7" s="118"/>
-    </row>
-    <row r="8" spans="1:46" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="118"/>
+    </row>
+    <row r="8" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="118" t="s">
         <v>76</v>
       </c>
       <c r="B8" s="118"/>
       <c r="C8" s="118"/>
       <c r="D8" s="68">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>94</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F8" s="69"/>
       <c r="G8" s="68">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I8" s="69"/>
-      <c r="J8" s="86">
-        <v>63</v>
-      </c>
-      <c r="K8" s="87" t="s">
+      <c r="J8" s="88">
         <v>65</v>
       </c>
-      <c r="L8" s="87"/>
-      <c r="AD8" s="3"/>
+      <c r="K8" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
       <c r="AE8" s="3"/>
-    </row>
-    <row r="9" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51">
         <v>5</v>
       </c>
@@ -3201,58 +3157,62 @@
       </c>
       <c r="C9" s="52"/>
       <c r="D9" s="68">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F9" s="69"/>
-      <c r="G9" s="68">
-        <v>46</v>
-      </c>
-      <c r="H9" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="69"/>
+      <c r="G9" s="65">
+        <v>49</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="66"/>
       <c r="J9" s="118" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="K9" s="118"/>
       <c r="L9" s="118"/>
-      <c r="AD9" s="3"/>
+      <c r="M9" s="118"/>
       <c r="AE9" s="3"/>
-    </row>
-    <row r="10" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3"/>
+    </row>
+    <row r="10" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="118" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="118"/>
       <c r="C10" s="118"/>
       <c r="D10" s="68">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F10" s="69"/>
       <c r="G10" s="68">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="88">
-        <v>64</v>
-      </c>
-      <c r="K10" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="89"/>
-      <c r="AD10" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="I10" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="90">
+        <v>66</v>
+      </c>
+      <c r="K10" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
       <c r="AE10" s="3"/>
-    </row>
-    <row r="11" spans="1:46" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AF10" s="3"/>
+    </row>
+    <row r="11" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="53">
         <v>6</v>
       </c>
@@ -3261,60 +3221,62 @@
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="68">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="69"/>
-      <c r="G11" s="65">
-        <v>48</v>
-      </c>
-      <c r="H11" s="66" t="s">
+      <c r="G11" s="68">
         <v>51</v>
       </c>
-      <c r="I11" s="66"/>
+      <c r="H11" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="69"/>
       <c r="J11" s="118" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="K11" s="118"/>
       <c r="L11" s="118"/>
-      <c r="AD11" s="3"/>
+      <c r="M11" s="118"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:46" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="118" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="118"/>
       <c r="C12" s="118"/>
       <c r="D12" s="68">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="F12" s="69"/>
       <c r="G12" s="68">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H12" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="90">
-        <v>65</v>
-      </c>
-      <c r="K12" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="69"/>
+      <c r="J12" s="111">
         <v>67</v>
       </c>
-      <c r="L12" s="91"/>
-      <c r="AD12" s="3"/>
+      <c r="K12" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="112"/>
+      <c r="M12" s="114" t="s">
+        <v>109</v>
+      </c>
       <c r="AE12" s="3"/>
-    </row>
-    <row r="13" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3"/>
+    </row>
+    <row r="13" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <v>7</v>
       </c>
@@ -3325,28 +3287,33 @@
         <v>105</v>
       </c>
       <c r="D13" s="68">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F13" s="69"/>
       <c r="G13" s="68">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H13" s="69" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="I13" s="69"/>
-      <c r="J13" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="AD13" s="3"/>
+      <c r="J13" s="115">
+        <v>68</v>
+      </c>
+      <c r="K13" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="116"/>
+      <c r="M13" s="117" t="s">
+        <v>108</v>
+      </c>
       <c r="AE13" s="3"/>
-    </row>
-    <row r="14" spans="1:46" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AF13" s="3"/>
+    </row>
+    <row r="14" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="104">
         <v>8</v>
       </c>
@@ -3355,32 +3322,31 @@
       </c>
       <c r="C14" s="109"/>
       <c r="D14" s="68">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F14" s="69"/>
       <c r="G14" s="68">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H14" s="69" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I14" s="69"/>
-      <c r="J14" s="111">
-        <v>66</v>
-      </c>
-      <c r="K14" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD14" s="3"/>
+      <c r="J14" s="92">
+        <v>69</v>
+      </c>
+      <c r="K14" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="119"/>
+      <c r="M14" s="113"/>
       <c r="AE14" s="3"/>
-    </row>
-    <row r="15" spans="1:46" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AF14" s="3"/>
+    </row>
+    <row r="15" spans="1:47" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="106">
         <v>9</v>
       </c>
@@ -3391,32 +3357,29 @@
         <v>106</v>
       </c>
       <c r="D15" s="68">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F15" s="69"/>
-      <c r="G15" s="68">
-        <v>52</v>
-      </c>
-      <c r="H15" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="69"/>
-      <c r="J15" s="115">
-        <v>67</v>
-      </c>
-      <c r="K15" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD15" s="3"/>
+      <c r="G15" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="92">
+        <v>60</v>
+      </c>
+      <c r="K15" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="93"/>
+      <c r="M15" s="113"/>
       <c r="AE15" s="3"/>
-    </row>
-    <row r="16" spans="1:46" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3"/>
+    </row>
+    <row r="16" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <v>10</v>
       </c>
@@ -3427,30 +3390,31 @@
         <v>107</v>
       </c>
       <c r="D16" s="68">
+        <v>31</v>
+      </c>
+      <c r="E16" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="69" t="s">
-        <v>72</v>
-      </c>
       <c r="F16" s="69"/>
-      <c r="G16" s="68">
-        <v>53</v>
-      </c>
-      <c r="H16" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="69"/>
-      <c r="J16" s="92">
-        <v>68</v>
+      <c r="G16" s="74">
+        <v>55</v>
+      </c>
+      <c r="H16" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="75"/>
+      <c r="J16" s="94">
+        <v>71</v>
       </c>
       <c r="K16" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="113"/>
-      <c r="AD16" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="104">
         <v>11</v>
       </c>
@@ -3459,26 +3423,25 @@
       </c>
       <c r="C17" s="109"/>
       <c r="D17" s="68">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="F17" s="69"/>
       <c r="G17" s="118" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="118"/>
       <c r="I17" s="118"/>
-      <c r="J17" s="94">
-        <v>69</v>
-      </c>
-      <c r="K17" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="93"/>
-    </row>
-    <row r="18" spans="1:18" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+    </row>
+    <row r="18" spans="1:19" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>12</v>
       </c>
@@ -3488,53 +3451,59 @@
       <c r="C18" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="68">
-        <v>31</v>
-      </c>
-      <c r="E18" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="74">
+      <c r="D18" s="65">
+        <v>33</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="66"/>
+      <c r="G18" s="76">
+        <v>56</v>
+      </c>
+      <c r="H18" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-    </row>
-    <row r="19" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="77"/>
+      <c r="J18" s="102">
+        <v>72</v>
+      </c>
+      <c r="K18" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+    </row>
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="118" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="118"/>
       <c r="C19" s="118"/>
-      <c r="D19" s="68">
-        <v>32</v>
-      </c>
-      <c r="E19" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="102">
-        <v>70</v>
-      </c>
-      <c r="K19" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="L19" s="103"/>
-    </row>
-    <row r="20" spans="1:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="71">
+        <v>34</v>
+      </c>
+      <c r="E19" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="76">
+        <v>57</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="77"/>
+      <c r="J19" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+    </row>
+    <row r="20" spans="1:19" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="57">
         <v>13</v>
       </c>
@@ -3542,27 +3511,32 @@
         <v>99</v>
       </c>
       <c r="C20" s="58"/>
-      <c r="D20" s="65">
-        <v>33</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="66"/>
+      <c r="D20" s="68">
+        <v>35</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>95</v>
+      </c>
       <c r="G20" s="76">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H20" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" s="77"/>
-      <c r="J20" s="118" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-    </row>
-    <row r="21" spans="1:18" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="100">
+        <v>73</v>
+      </c>
+      <c r="K20" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+    </row>
+    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="57">
         <v>14</v>
       </c>
@@ -3570,64 +3544,60 @@
         <v>63</v>
       </c>
       <c r="C21" s="58"/>
-      <c r="D21" s="71">
-        <v>34</v>
-      </c>
-      <c r="E21" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="73" t="s">
-        <v>30</v>
-      </c>
+      <c r="D21" s="68">
+        <v>36</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="69"/>
       <c r="G21" s="76">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I21" s="77"/>
-      <c r="J21" s="100">
-        <v>71</v>
-      </c>
-      <c r="K21" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="101"/>
-    </row>
-    <row r="22" spans="1:18" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+    </row>
+    <row r="22" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="118" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="118"/>
       <c r="C22" s="118"/>
-      <c r="D22" s="68">
-        <v>35</v>
-      </c>
-      <c r="E22" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="76">
-        <v>57</v>
-      </c>
-      <c r="H22" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="77"/>
-      <c r="J22" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="N22" s="2"/>
+      <c r="D22" s="65">
+        <v>37</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="66"/>
+      <c r="G22" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="97">
+        <v>74</v>
+      </c>
+      <c r="K22" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="59">
         <v>15</v>
       </c>
@@ -3636,28 +3606,31 @@
       </c>
       <c r="C23" s="60"/>
       <c r="D23" s="68">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="69"/>
-      <c r="G23" s="76">
-        <v>58</v>
-      </c>
-      <c r="H23" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="77"/>
+        <v>59</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="78">
+        <v>60</v>
+      </c>
+      <c r="H23" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="79"/>
       <c r="J23" s="97">
-        <v>72</v>
-      </c>
-      <c r="K23" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="L23" s="98"/>
-    </row>
-    <row r="24" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="K23" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+    </row>
+    <row r="24" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="59">
         <v>16</v>
       </c>
@@ -3666,54 +3639,56 @@
       </c>
       <c r="C24" s="60"/>
       <c r="D24" s="65">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" s="66" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="F24" s="66"/>
       <c r="G24" s="118" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H24" s="118"/>
       <c r="I24" s="118"/>
-      <c r="J24" s="97">
-        <v>73</v>
-      </c>
-      <c r="K24" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="99"/>
-    </row>
-    <row r="25" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+    </row>
+    <row r="25" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="118" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="118"/>
       <c r="C25" s="118"/>
       <c r="D25" s="68">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="F25" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="78">
-        <v>59</v>
-      </c>
-      <c r="H25" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="118" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-    </row>
-    <row r="26" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G25" s="80">
+        <v>61</v>
+      </c>
+      <c r="H25" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="81"/>
+      <c r="J25" s="95">
+        <v>76</v>
+      </c>
+      <c r="K25" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+    </row>
+    <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="61">
         <v>17</v>
       </c>
@@ -3721,103 +3696,113 @@
         <v>62</v>
       </c>
       <c r="C26" s="62"/>
-      <c r="D26" s="65">
-        <v>39</v>
-      </c>
-      <c r="E26" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="66"/>
+      <c r="D26" s="68">
+        <v>41</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="69"/>
       <c r="G26" s="118" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="H26" s="118"/>
       <c r="I26" s="118"/>
-      <c r="J26" s="95">
-        <v>74</v>
-      </c>
-      <c r="K26" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" s="96"/>
-    </row>
-    <row r="27" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="68">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E27" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="80">
-        <v>60</v>
-      </c>
-      <c r="H27" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="81"/>
-    </row>
-    <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="13:13" ht="12.75" x14ac:dyDescent="0.2"/>
+        <v>31</v>
+      </c>
+      <c r="F27" s="69"/>
+      <c r="G27" s="82">
+        <v>62</v>
+      </c>
+      <c r="H27" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="83"/>
+    </row>
+    <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="63">
+        <v>18</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="64"/>
+      <c r="D28" s="68">
+        <v>43</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="69"/>
+    </row>
+    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J24:M24"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/LanguageFamily.xlsx
+++ b/data/LanguageFamily.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuto\Documents\MATLAB\projects\song-speech-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4BE660-C4FA-4757-A176-92BB02DF85CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528D3BEC-A53D-4000-B233-36A828D67300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LanguageFamily-level" sheetId="5" r:id="rId1"/>
-    <sheet name="SubFamily-level" sheetId="6" r:id="rId2"/>
-    <sheet name="SubFamily-level (2)" sheetId="7" r:id="rId3"/>
+    <sheet name="SubFamily-level" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="114">
   <si>
     <t>Afro-Asiatic</t>
   </si>
@@ -455,6 +454,10 @@
   </si>
   <si>
     <t>Cantonese (Yue Chinese) [Hong Kong]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Tsesungún (Huilliche)</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -840,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1116,7 +1119,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1207,6 +1209,55 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>127388</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76838</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB721F9B-CDDA-4090-AE23-B5C5181A1A82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4939393"/>
+          <a:ext cx="10618495" cy="4485552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2074,6 +2125,12 @@
     <row r="47" spans="9:9" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A21:B21"/>
@@ -2090,12 +2147,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2105,815 +2156,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB27DD7-5646-4673-899D-3419A5833006}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AR47"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
-    <col min="12" max="12" width="33.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" customWidth="1"/>
-    <col min="14" max="14" width="33.7109375" customWidth="1"/>
-    <col min="15" max="15" width="2.85546875" customWidth="1"/>
-    <col min="16" max="16" width="33.7109375" customWidth="1"/>
-    <col min="17" max="17" width="2.85546875" customWidth="1"/>
-    <col min="18" max="18" width="33.7109375" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
-    <col min="21" max="21" width="2.85546875" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.140625" customWidth="1"/>
-    <col min="26" max="26" width="4.42578125" customWidth="1"/>
-    <col min="27" max="27" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:44" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-    </row>
-    <row r="2" spans="1:44" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-    </row>
-    <row r="3" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="118"/>
-    </row>
-    <row r="4" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="63">
-        <v>18</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="68">
-        <v>41</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="82">
-        <v>61</v>
-      </c>
-      <c r="J4" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="68">
-        <v>42</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="118"/>
-    </row>
-    <row r="6" spans="1:44" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="65">
-        <v>19</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="68">
-        <v>43</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="84">
-        <v>62</v>
-      </c>
-      <c r="J6" s="85" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="65">
-        <v>20</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="68">
-        <v>44</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="118" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="118"/>
-    </row>
-    <row r="8" spans="1:44" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="68">
-        <v>21</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="68">
-        <v>45</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="86">
-        <v>63</v>
-      </c>
-      <c r="J8" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-    </row>
-    <row r="9" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51">
-        <v>5</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="68">
-        <v>22</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="68">
-        <v>46</v>
-      </c>
-      <c r="G9" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="118" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="118"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-    </row>
-    <row r="10" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="68">
-        <v>23</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="68">
-        <v>47</v>
-      </c>
-      <c r="G10" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="88">
-        <v>64</v>
-      </c>
-      <c r="J10" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-    </row>
-    <row r="11" spans="1:44" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53">
-        <v>6</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="68">
-        <v>24</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="65">
-        <v>48</v>
-      </c>
-      <c r="G11" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="118"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:44" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="118" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="68">
-        <v>25</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="68">
-        <v>49</v>
-      </c>
-      <c r="G12" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="90">
-        <v>65</v>
-      </c>
-      <c r="J12" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-    </row>
-    <row r="13" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55">
-        <v>7</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="68">
-        <v>26</v>
-      </c>
-      <c r="D13" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="68">
-        <v>50</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="118"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-    </row>
-    <row r="14" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55">
-        <v>8</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="68">
-        <v>27</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="68">
-        <v>51</v>
-      </c>
-      <c r="G14" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="69"/>
-      <c r="I14" s="92">
-        <v>66</v>
-      </c>
-      <c r="J14" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-    </row>
-    <row r="15" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55">
-        <v>9</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="68">
-        <v>28</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="68">
-        <v>52</v>
-      </c>
-      <c r="G15" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="92">
-        <v>67</v>
-      </c>
-      <c r="J15" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-    </row>
-    <row r="16" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55">
-        <v>10</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="68">
-        <v>29</v>
-      </c>
-      <c r="D16" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="68">
-        <v>53</v>
-      </c>
-      <c r="G16" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="92">
-        <v>68</v>
-      </c>
-      <c r="J16" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55">
-        <v>11</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="68">
-        <v>30</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="94">
-        <v>69</v>
-      </c>
-      <c r="J17" s="93" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55">
-        <v>12</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="68">
-        <v>31</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="74">
-        <v>54</v>
-      </c>
-      <c r="G18" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="75"/>
-      <c r="I18" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="118"/>
-    </row>
-    <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="68">
-        <v>32</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="102">
-        <v>70</v>
-      </c>
-      <c r="J19" s="103" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57">
-        <v>13</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="65">
-        <v>33</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="76">
-        <v>55</v>
-      </c>
-      <c r="G20" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="118" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="118"/>
-    </row>
-    <row r="21" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57">
-        <v>14</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="71">
-        <v>34</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="76">
-        <v>56</v>
-      </c>
-      <c r="G21" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="100">
-        <v>71</v>
-      </c>
-      <c r="J21" s="101" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="68">
-        <v>35</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="76">
-        <v>57</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="118"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="59">
-        <v>15</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="68">
-        <v>36</v>
-      </c>
-      <c r="D23" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="76">
-        <v>58</v>
-      </c>
-      <c r="G23" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="97">
-        <v>72</v>
-      </c>
-      <c r="J23" s="98" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59">
-        <v>16</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="65">
-        <v>37</v>
-      </c>
-      <c r="D24" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="118" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="97">
-        <v>73</v>
-      </c>
-      <c r="J24" s="99" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="118" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="118"/>
-      <c r="C25" s="68">
-        <v>38</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="78">
-        <v>59</v>
-      </c>
-      <c r="G25" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="79"/>
-      <c r="I25" s="118" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="118"/>
-    </row>
-    <row r="26" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="61">
-        <v>17</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="65">
-        <v>39</v>
-      </c>
-      <c r="D26" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="95">
-        <v>74</v>
-      </c>
-      <c r="J26" s="96" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="68">
-        <v>40</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="80">
-        <v>60</v>
-      </c>
-      <c r="G27" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="81"/>
-    </row>
-    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="11:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="11:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="11:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="11:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="11:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="11:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="11:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="11:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="11:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="11:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="11:11" ht="12.75" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C5:E5"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D56EAD0-EB25-4A4E-9EC4-C37E9FF0785F}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2985,7 +2235,7 @@
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
       <c r="J3" s="118" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="K3" s="118"/>
       <c r="L3" s="118"/>
@@ -3000,7 +2250,7 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="65">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>32</v>
@@ -3009,20 +2259,20 @@
         <v>92</v>
       </c>
       <c r="G4" s="68">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H4" s="69" t="s">
         <v>56</v>
       </c>
       <c r="I4" s="69"/>
-      <c r="J4" s="84">
-        <v>63</v>
-      </c>
-      <c r="K4" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="J4" s="86">
+        <v>65</v>
+      </c>
+      <c r="K4" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:47" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -3033,7 +2283,7 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="65">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="66" t="s">
         <v>64</v>
@@ -3042,14 +2292,14 @@
         <v>93</v>
       </c>
       <c r="G5" s="68">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="I5" s="69"/>
       <c r="J5" s="118" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="K5" s="118"/>
       <c r="L5" s="118"/>
@@ -3064,7 +2314,7 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="68">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="69" t="s">
         <v>27</v>
@@ -3073,20 +2323,20 @@
         <v>94</v>
       </c>
       <c r="G6" s="68">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I6" s="69"/>
-      <c r="J6" s="86">
-        <v>64</v>
-      </c>
-      <c r="K6" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="J6" s="88">
+        <v>66</v>
+      </c>
+      <c r="K6" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
     </row>
     <row r="7" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -3097,58 +2347,58 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="68">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="69" t="s">
         <v>87</v>
       </c>
       <c r="F7" s="69"/>
       <c r="G7" s="68">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="69"/>
       <c r="J7" s="118" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="K7" s="118"/>
       <c r="L7" s="118"/>
       <c r="M7" s="118"/>
     </row>
-    <row r="8" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="118" t="s">
         <v>76</v>
       </c>
       <c r="B8" s="118"/>
       <c r="C8" s="118"/>
       <c r="D8" s="68">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="69" t="s">
         <v>88</v>
       </c>
       <c r="F8" s="69"/>
-      <c r="G8" s="68">
-        <v>47</v>
-      </c>
-      <c r="H8" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="88">
-        <v>65</v>
-      </c>
-      <c r="K8" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
+      <c r="G8" s="65">
+        <v>50</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="90">
+        <v>67</v>
+      </c>
+      <c r="K8" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="51">
         <v>5</v>
       </c>
@@ -3157,21 +2407,23 @@
       </c>
       <c r="C9" s="52"/>
       <c r="D9" s="68">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="69" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="69"/>
-      <c r="G9" s="65">
-        <v>49</v>
-      </c>
-      <c r="H9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" s="66"/>
+      <c r="G9" s="68">
+        <v>51</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="70" t="s">
+        <v>98</v>
+      </c>
       <c r="J9" s="118" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="K9" s="118"/>
       <c r="L9" s="118"/>
@@ -3179,40 +2431,40 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="118" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="118"/>
       <c r="C10" s="118"/>
       <c r="D10" s="68">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="69" t="s">
         <v>100</v>
       </c>
       <c r="F10" s="69"/>
       <c r="G10" s="68">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="90">
-        <v>66</v>
-      </c>
-      <c r="K10" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
+        <v>102</v>
+      </c>
+      <c r="I10" s="69"/>
+      <c r="J10" s="111">
+        <v>68</v>
+      </c>
+      <c r="K10" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="112"/>
+      <c r="M10" s="114" t="s">
+        <v>109</v>
+      </c>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="53">
         <v>6</v>
       </c>
@@ -3221,267 +2473,267 @@
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="68">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="69" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="69"/>
       <c r="G11" s="68">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="69" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="I11" s="69"/>
-      <c r="J11" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
+      <c r="J11" s="115">
+        <v>69</v>
+      </c>
+      <c r="K11" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="116"/>
+      <c r="M11" s="117" t="s">
+        <v>108</v>
+      </c>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
+    <row r="12" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="53">
+        <v>7</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="54"/>
       <c r="D12" s="68">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="69" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="69"/>
       <c r="G12" s="68">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" s="69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="69"/>
-      <c r="J12" s="111">
-        <v>67</v>
-      </c>
-      <c r="K12" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="112"/>
-      <c r="M12" s="114" t="s">
-        <v>109</v>
-      </c>
+      <c r="J12" s="92">
+        <v>70</v>
+      </c>
+      <c r="K12" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="93"/>
+      <c r="M12" s="113"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55">
-        <v>7</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="108" t="s">
-        <v>105</v>
-      </c>
+    <row r="13" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="68">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="69" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="69"/>
       <c r="G13" s="68">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" s="69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I13" s="69"/>
-      <c r="J13" s="115">
+      <c r="J13" s="92">
+        <v>71</v>
+      </c>
+      <c r="K13" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="116"/>
-      <c r="M13" s="117" t="s">
-        <v>108</v>
-      </c>
+      <c r="L13" s="93"/>
+      <c r="M13" s="113"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104">
+    <row r="14" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55">
         <v>8</v>
       </c>
-      <c r="B14" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="109"/>
+      <c r="B14" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="108" t="s">
+        <v>105</v>
+      </c>
       <c r="D14" s="68">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="69" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="69"/>
-      <c r="G14" s="68">
-        <v>54</v>
-      </c>
-      <c r="H14" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="92">
-        <v>69</v>
-      </c>
-      <c r="K14" s="119" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" s="119"/>
-      <c r="M14" s="113"/>
+      <c r="G14" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="94">
+        <v>72</v>
+      </c>
+      <c r="K14" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:47" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106">
+    <row r="15" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="104">
         <v>9</v>
       </c>
-      <c r="B15" s="107" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="110" t="s">
-        <v>106</v>
-      </c>
+      <c r="B15" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="109"/>
       <c r="D15" s="68">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="69" t="s">
         <v>89</v>
       </c>
       <c r="F15" s="69"/>
-      <c r="G15" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="92">
-        <v>60</v>
-      </c>
-      <c r="K15" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="93"/>
-      <c r="M15" s="113"/>
+      <c r="G15" s="74">
+        <v>56</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="75"/>
+      <c r="J15" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55">
+    <row r="16" spans="1:47" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="106">
         <v>10</v>
       </c>
-      <c r="B16" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="108" t="s">
-        <v>107</v>
+      <c r="B16" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="110" t="s">
+        <v>106</v>
       </c>
       <c r="D16" s="68">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="69" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="69"/>
-      <c r="G16" s="74">
-        <v>55</v>
-      </c>
-      <c r="H16" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="75"/>
-      <c r="J16" s="94">
-        <v>71</v>
-      </c>
-      <c r="K16" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
+      <c r="G16" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="102">
+        <v>73</v>
+      </c>
+      <c r="K16" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104">
+    <row r="17" spans="1:19" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55">
         <v>11</v>
       </c>
-      <c r="B17" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="109"/>
+      <c r="B17" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="108" t="s">
+        <v>107</v>
+      </c>
       <c r="D17" s="68">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="69" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="69"/>
-      <c r="G17" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
+      <c r="G17" s="76">
+        <v>57</v>
+      </c>
+      <c r="H17" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="77"/>
       <c r="J17" s="118" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="K17" s="118"/>
       <c r="L17" s="118"/>
       <c r="M17" s="118"/>
     </row>
-    <row r="18" spans="1:19" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55">
+    <row r="18" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="104">
         <v>12</v>
       </c>
-      <c r="B18" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="108" t="s">
-        <v>20</v>
-      </c>
+      <c r="B18" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="109"/>
       <c r="D18" s="65">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="66" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="66"/>
       <c r="G18" s="76">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H18" s="77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I18" s="77"/>
-      <c r="J18" s="102">
-        <v>72</v>
-      </c>
-      <c r="K18" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
+      <c r="J18" s="100">
+        <v>74</v>
+      </c>
+      <c r="K18" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
+      <c r="A19" s="55">
+        <v>13</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="108" t="s">
+        <v>20</v>
+      </c>
       <c r="D19" s="71">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="72" t="s">
         <v>30</v>
@@ -3490,29 +2742,27 @@
         <v>30</v>
       </c>
       <c r="G19" s="76">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H19" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I19" s="77"/>
       <c r="J19" s="118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K19" s="118"/>
       <c r="L19" s="118"/>
       <c r="M19" s="118"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57">
-        <v>13</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="58"/>
+      <c r="A20" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="68">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" s="69" t="s">
         <v>79</v>
@@ -3521,76 +2771,78 @@
         <v>95</v>
       </c>
       <c r="G20" s="76">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H20" s="77" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I20" s="77"/>
-      <c r="J20" s="100">
-        <v>73</v>
-      </c>
-      <c r="K20" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
+      <c r="J20" s="97">
+        <v>75</v>
+      </c>
+      <c r="K20" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="57">
         <v>14</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C21" s="58"/>
       <c r="D21" s="68">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="69" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="69"/>
-      <c r="G21" s="76">
-        <v>59</v>
-      </c>
-      <c r="H21" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="77"/>
-      <c r="J21" s="118" t="s">
+      <c r="G21" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="97">
+        <v>76</v>
+      </c>
+      <c r="K21" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+    </row>
+    <row r="22" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="57">
         <v>15</v>
       </c>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-    </row>
-    <row r="22" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
+      <c r="B22" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="58"/>
       <c r="D22" s="65">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="66" t="s">
         <v>101</v>
       </c>
       <c r="F22" s="66"/>
-      <c r="G22" s="118" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="97">
-        <v>74</v>
-      </c>
-      <c r="K22" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
+      <c r="G22" s="78">
+        <v>61</v>
+      </c>
+      <c r="H22" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="79"/>
+      <c r="J22" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -3598,15 +2850,13 @@
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59">
-        <v>15</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="60"/>
+      <c r="A23" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
       <c r="D23" s="68">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" s="69" t="s">
         <v>59</v>
@@ -3614,57 +2864,53 @@
       <c r="F23" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="78">
-        <v>60</v>
-      </c>
-      <c r="H23" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="79"/>
-      <c r="J23" s="97">
-        <v>75</v>
-      </c>
-      <c r="K23" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
+      <c r="G23" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="95">
+        <v>77</v>
+      </c>
+      <c r="K23" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
     </row>
     <row r="24" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="59">
         <v>16</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="60"/>
       <c r="D24" s="65">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24" s="66" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="66"/>
-      <c r="G24" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
+      <c r="G24" s="80">
+        <v>62</v>
+      </c>
+      <c r="H24" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="81"/>
     </row>
     <row r="25" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="118" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
+      <c r="A25" s="59">
+        <v>17</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="60"/>
       <c r="D25" s="68">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="69" t="s">
         <v>13</v>
@@ -3672,81 +2918,92 @@
       <c r="F25" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="80">
-        <v>61</v>
-      </c>
-      <c r="H25" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="81"/>
-      <c r="J25" s="95">
-        <v>76</v>
-      </c>
-      <c r="K25" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
+      <c r="G25" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
     </row>
     <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="61">
-        <v>17</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="62"/>
+      <c r="A26" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="68">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="69" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="69"/>
-      <c r="G26" s="118" t="s">
+      <c r="G26" s="82">
+        <v>63</v>
+      </c>
+      <c r="H26" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="83"/>
+    </row>
+    <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="61">
+        <v>18</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="68">
         <v>43</v>
-      </c>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-    </row>
-    <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="68">
-        <v>42</v>
       </c>
       <c r="E27" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="69"/>
-      <c r="G27" s="82">
-        <v>62</v>
-      </c>
-      <c r="H27" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="83"/>
+      <c r="G27" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
     </row>
     <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="63">
-        <v>18</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="64"/>
+      <c r="A28" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="68">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E28" s="69" t="s">
         <v>57</v>
       </c>
       <c r="F28" s="69"/>
-    </row>
-    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="G28" s="84">
+        <v>64</v>
+      </c>
+      <c r="H28" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="85"/>
+    </row>
+    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="63">
+        <v>19</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="68">
+        <v>45</v>
+      </c>
+      <c r="E29" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="69"/>
+    </row>
     <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -3777,32 +3034,33 @@
     <row r="47" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G27:J27"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="J9:M9"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J15:M15"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G16:I16"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/LanguageFamily.xlsx
+++ b/data/LanguageFamily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuto\Documents\MATLAB\projects\song-speech-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528D3BEC-A53D-4000-B233-36A828D67300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8842CDF1-2A49-418D-9830-B7BE63B57A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
   <si>
     <t>Afro-Asiatic</t>
   </si>
@@ -409,55 +409,66 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>Macedonian</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Tai-Kadai</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Thai</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Bantu</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Defoid</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Tano</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Chinese</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Burmese-Lolo</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Spanish [Osorno]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Tsesungún (Huilliche)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Te Reo Māori (Māori) [Auckland]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Te Reo Māori (Māori) [Wellington]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Rukai</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
     <t>Punjabi (Eastern Panjabi)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Macedonian</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Tai-Kadai</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Thai</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Bantu</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Defoid</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Tano</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Chinese</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Burmese-Lolo</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Spanish [Osorno]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Cantonese (Yue Chinese) [Ontario]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Cantonese (Yue Chinese) [Hong Kong]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Tsesungún (Huilliche)</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Slovenian</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -843,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1119,6 +1130,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1127,6 +1139,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00B7E8"/>
       <color rgb="FFDE71F9"/>
       <color rgb="FFF265E7"/>
       <color rgb="FFFE61CF"/>
@@ -1136,7 +1149,6 @@
       <color rgb="FF8F91FF"/>
       <color rgb="FF3DA1FF"/>
       <color rgb="FF00AEFA"/>
-      <color rgb="FF00B7E8"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1209,55 +1221,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>127388</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>76838</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB721F9B-CDDA-4090-AE23-B5C5181A1A82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4939393"/>
-          <a:ext cx="10618495" cy="4485552"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2125,12 +2088,6 @@
     <row r="47" spans="9:9" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A21:B21"/>
@@ -2147,6 +2104,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2162,8 +2125,8 @@
   </sheetPr>
   <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2228,20 +2191,20 @@
       <c r="B3" s="118"/>
       <c r="C3" s="118"/>
       <c r="D3" s="118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
       <c r="J3" s="118" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="K3" s="118"/>
       <c r="L3" s="118"/>
       <c r="M3" s="118"/>
     </row>
-    <row r="4" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2249,32 +2212,30 @@
         <v>73</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="65">
-        <v>20</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="67" t="s">
-        <v>92</v>
-      </c>
+      <c r="D4" s="63">
+        <v>21</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="64"/>
       <c r="G4" s="68">
         <v>46</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I4" s="69"/>
-      <c r="J4" s="86">
-        <v>65</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-    </row>
-    <row r="5" spans="1:47" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="82">
+        <v>67</v>
+      </c>
+      <c r="K4" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="83"/>
+      <c r="M4" s="119"/>
+    </row>
+    <row r="5" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2282,30 +2243,26 @@
         <v>74</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="65">
-        <v>21</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>93</v>
-      </c>
+      <c r="D5" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="68">
         <v>47</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I5" s="69"/>
       <c r="J5" s="118" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K5" s="118"/>
       <c r="L5" s="118"/>
       <c r="M5" s="118"/>
     </row>
-    <row r="6" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2313,32 +2270,32 @@
         <v>75</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="68">
+      <c r="D6" s="65">
         <v>22</v>
       </c>
-      <c r="E6" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>94</v>
+      <c r="E6" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>92</v>
       </c>
       <c r="G6" s="68">
         <v>48</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I6" s="69"/>
-      <c r="J6" s="88">
-        <v>66</v>
-      </c>
-      <c r="K6" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-    </row>
-    <row r="7" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="84">
+        <v>68</v>
+      </c>
+      <c r="K6" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+    </row>
+    <row r="7" spans="1:47" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2346,28 +2303,30 @@
         <v>44</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="68">
+      <c r="D7" s="65">
         <v>23</v>
       </c>
-      <c r="E7" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="69"/>
+      <c r="E7" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>93</v>
+      </c>
       <c r="G7" s="68">
         <v>49</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I7" s="69"/>
       <c r="J7" s="118" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K7" s="118"/>
       <c r="L7" s="118"/>
       <c r="M7" s="118"/>
     </row>
-    <row r="8" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="118" t="s">
         <v>76</v>
       </c>
@@ -2377,28 +2336,30 @@
         <v>24</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="65">
+        <v>27</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="68">
         <v>50</v>
       </c>
-      <c r="H8" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="90">
-        <v>67</v>
-      </c>
-      <c r="K8" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
+      <c r="H8" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="86">
+        <v>69</v>
+      </c>
+      <c r="K8" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="51">
         <v>5</v>
       </c>
@@ -2410,20 +2371,18 @@
         <v>25</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="F9" s="69"/>
       <c r="G9" s="68">
         <v>51</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="70" t="s">
-        <v>98</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I9" s="69"/>
       <c r="J9" s="118" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="K9" s="118"/>
       <c r="L9" s="118"/>
@@ -2431,7 +2390,7 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="118" t="s">
         <v>18</v>
       </c>
@@ -2441,30 +2400,28 @@
         <v>26</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F10" s="69"/>
       <c r="G10" s="68">
         <v>52</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="I10" s="69"/>
-      <c r="J10" s="111">
-        <v>68</v>
-      </c>
-      <c r="K10" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="112"/>
-      <c r="M10" s="114" t="s">
-        <v>109</v>
-      </c>
+      <c r="J10" s="88">
+        <v>70</v>
+      </c>
+      <c r="K10" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53">
         <v>6</v>
       </c>
@@ -2476,59 +2433,57 @@
         <v>27</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" s="69"/>
-      <c r="G11" s="68">
+      <c r="G11" s="65">
         <v>53</v>
       </c>
-      <c r="H11" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="115">
-        <v>69</v>
-      </c>
-      <c r="K11" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" s="116"/>
-      <c r="M11" s="117" t="s">
-        <v>108</v>
-      </c>
+      <c r="H11" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="66"/>
+      <c r="J11" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53">
         <v>7</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="68">
         <v>28</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="F12" s="69"/>
       <c r="G12" s="68">
         <v>54</v>
       </c>
       <c r="H12" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="92">
-        <v>70</v>
-      </c>
-      <c r="K12" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" s="93"/>
-      <c r="M12" s="113"/>
+        <v>25</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="90">
+        <v>71</v>
+      </c>
+      <c r="K12" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
     </row>
@@ -2542,28 +2497,26 @@
         <v>29</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F13" s="69"/>
       <c r="G13" s="68">
         <v>55</v>
       </c>
       <c r="H13" s="69" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="I13" s="69"/>
-      <c r="J13" s="92">
-        <v>71</v>
-      </c>
-      <c r="K13" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="93"/>
-      <c r="M13" s="113"/>
+      <c r="J13" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>8</v>
       </c>
@@ -2571,32 +2524,36 @@
         <v>61</v>
       </c>
       <c r="C14" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="68">
         <v>30</v>
       </c>
       <c r="E14" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="69"/>
+      <c r="G14" s="68">
+        <v>56</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="69"/>
+      <c r="J14" s="111">
         <v>72</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="94">
-        <v>72</v>
-      </c>
-      <c r="K14" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
+      <c r="K14" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="112"/>
+      <c r="M14" s="114" t="s">
+        <v>108</v>
+      </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="104">
         <v>9</v>
       </c>
@@ -2608,22 +2565,26 @@
         <v>31</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F15" s="69"/>
-      <c r="G15" s="74">
-        <v>56</v>
-      </c>
-      <c r="H15" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
+      <c r="G15" s="68">
+        <v>57</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="69"/>
+      <c r="J15" s="115">
+        <v>73</v>
+      </c>
+      <c r="K15" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="116"/>
+      <c r="M15" s="117" t="s">
+        <v>107</v>
+      </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
     </row>
@@ -2635,28 +2596,30 @@
         <v>21</v>
       </c>
       <c r="C16" s="110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="68">
         <v>32</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F16" s="69"/>
-      <c r="G16" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="102">
-        <v>73</v>
-      </c>
-      <c r="K16" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
+      <c r="G16" s="68">
+        <v>58</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="69"/>
+      <c r="J16" s="92">
+        <v>74</v>
+      </c>
+      <c r="K16" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="93"/>
+      <c r="M16" s="113"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
@@ -2668,28 +2631,30 @@
         <v>71</v>
       </c>
       <c r="C17" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="68">
         <v>33</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F17" s="69"/>
-      <c r="G17" s="76">
-        <v>57</v>
-      </c>
-      <c r="H17" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="77"/>
-      <c r="J17" s="118" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
+      <c r="G17" s="68">
+        <v>59</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="69"/>
+      <c r="J17" s="94">
+        <v>75</v>
+      </c>
+      <c r="K17" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="93"/>
+      <c r="M17" s="113"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="104">
@@ -2699,30 +2664,26 @@
         <v>60</v>
       </c>
       <c r="C18" s="109"/>
-      <c r="D18" s="65">
+      <c r="D18" s="68">
         <v>34</v>
       </c>
-      <c r="E18" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="76">
-        <v>58</v>
-      </c>
-      <c r="H18" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="77"/>
-      <c r="J18" s="100">
-        <v>74</v>
-      </c>
-      <c r="K18" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-    </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="69"/>
+      <c r="G18" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+    </row>
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55">
         <v>13</v>
       </c>
@@ -2732,61 +2693,55 @@
       <c r="C19" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="68">
         <v>35</v>
       </c>
-      <c r="E19" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="76">
-        <v>59</v>
-      </c>
-      <c r="H19" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="77"/>
-      <c r="J19" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-    </row>
-    <row r="20" spans="1:19" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="69"/>
+      <c r="G19" s="74">
+        <v>60</v>
+      </c>
+      <c r="H19" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="75"/>
+      <c r="J19" s="102">
+        <v>76</v>
+      </c>
+      <c r="K19" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+    </row>
+    <row r="20" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="118" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="118"/>
       <c r="C20" s="118"/>
-      <c r="D20" s="68">
+      <c r="D20" s="65">
         <v>36</v>
       </c>
-      <c r="E20" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="76">
-        <v>60</v>
-      </c>
-      <c r="H20" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="77"/>
-      <c r="J20" s="97">
-        <v>75</v>
-      </c>
-      <c r="K20" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-    </row>
-    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="66"/>
+      <c r="G20" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+    </row>
+    <row r="21" spans="1:19" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57">
         <v>14</v>
       </c>
@@ -2794,51 +2749,57 @@
         <v>99</v>
       </c>
       <c r="C21" s="58"/>
-      <c r="D21" s="68">
+      <c r="D21" s="71">
         <v>37</v>
       </c>
-      <c r="E21" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="118" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="97">
-        <v>76</v>
-      </c>
-      <c r="K21" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-    </row>
-    <row r="22" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="76">
+        <v>61</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="77"/>
+      <c r="J21" s="100">
+        <v>77</v>
+      </c>
+      <c r="K21" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+    </row>
+    <row r="22" spans="1:19" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57">
         <v>15</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="C22" s="58"/>
-      <c r="D22" s="65">
+      <c r="D22" s="68">
         <v>38</v>
       </c>
-      <c r="E22" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="78">
-        <v>61</v>
-      </c>
-      <c r="H22" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="79"/>
+      <c r="E22" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="76">
+        <v>62</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="77"/>
       <c r="J22" s="118" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K22" s="118"/>
       <c r="L22" s="118"/>
@@ -2849,127 +2810,150 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
+    <row r="23" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="57">
+        <v>16</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="58"/>
       <c r="D23" s="68">
         <v>39</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="95">
-        <v>77</v>
-      </c>
-      <c r="K23" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-    </row>
-    <row r="24" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59">
+        <v>41</v>
+      </c>
+      <c r="F23" s="69"/>
+      <c r="G23" s="76">
+        <v>63</v>
+      </c>
+      <c r="H23" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="77"/>
+      <c r="J23" s="97">
+        <v>78</v>
+      </c>
+      <c r="K23" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+    </row>
+    <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="57">
+        <v>17</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="68">
+        <v>40</v>
+      </c>
+      <c r="E24" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="69"/>
+      <c r="G24" s="76">
+        <v>64</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="77"/>
+      <c r="J24" s="97">
+        <v>79</v>
+      </c>
+      <c r="K24" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="65">
-        <v>40</v>
-      </c>
-      <c r="E24" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="80">
-        <v>62</v>
-      </c>
-      <c r="H24" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="81"/>
-    </row>
-    <row r="25" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59">
-        <v>17</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="68">
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+    </row>
+    <row r="25" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="65">
         <v>41</v>
       </c>
-      <c r="E25" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="70" t="s">
-        <v>97</v>
-      </c>
+      <c r="E25" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="66"/>
       <c r="G25" s="118" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="H25" s="118"/>
       <c r="I25" s="118"/>
-    </row>
-    <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="118" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
+      <c r="J25" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+    </row>
+    <row r="26" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="59">
+        <v>18</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="60"/>
       <c r="D26" s="68">
         <v>42</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="82">
-        <v>63</v>
-      </c>
-      <c r="H26" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="83"/>
-    </row>
-    <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="61">
-        <v>18</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="68">
+        <v>59</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="78">
+        <v>65</v>
+      </c>
+      <c r="H26" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="79"/>
+      <c r="J26" s="95">
+        <v>80</v>
+      </c>
+      <c r="K26" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+    </row>
+    <row r="27" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="59">
+        <v>19</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="65">
         <v>43</v>
       </c>
-      <c r="E27" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="69"/>
+      <c r="E27" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="66"/>
       <c r="G27" s="118" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="H27" s="118"/>
       <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-    </row>
-    <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="118" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B28" s="118"/>
       <c r="C28" s="118"/>
@@ -2977,30 +2961,32 @@
         <v>44</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="84">
-        <v>64</v>
-      </c>
-      <c r="H28" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="I28" s="85"/>
+        <v>13</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="80">
+        <v>66</v>
+      </c>
+      <c r="H28" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="63">
-        <v>19</v>
-      </c>
-      <c r="B29" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="64"/>
+      <c r="A29" s="61">
+        <v>20</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="62"/>
       <c r="D29" s="68">
         <v>45</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F29" s="69"/>
     </row>
@@ -3034,33 +3020,32 @@
     <row r="47" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/LanguageFamily.xlsx
+++ b/data/LanguageFamily.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuto\Documents\MATLAB\projects\song-speech-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEF6740-D0EB-4C21-A850-1D4079F91191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA998419-D88E-48C0-A66A-E66CCC45AED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7740" yWindow="0" windowWidth="19470" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SubFamily-level" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
   <si>
     <t>Afro-Asiatic</t>
   </si>
@@ -441,10 +454,6 @@
   </si>
   <si>
     <t>Te Reo Māori (Māori) [Wellington]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Rukai</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -895,10 +904,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1133,8 +1142,8 @@
   </sheetPr>
   <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1193,22 +1202,22 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="J3" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="J3" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
     </row>
     <row r="4" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
@@ -1218,30 +1227,29 @@
         <v>70</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="17">
+      <c r="D4" s="19">
         <v>21</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="18"/>
+      <c r="E4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="20"/>
       <c r="G4" s="24">
-        <v>45</v>
+        <f>D29+1</f>
+        <v>46</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="36">
+        <v>29</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="38">
         <v>67</v>
       </c>
-      <c r="K4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="K4" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="39"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -1251,26 +1259,27 @@
         <v>71</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="D5" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="24">
-        <v>46</v>
+        <f>G4+1</f>
+        <v>47</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I5" s="25"/>
-      <c r="J5" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-    </row>
-    <row r="6" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+    </row>
+    <row r="6" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1278,30 +1287,33 @@
         <v>72</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="19">
+      <c r="D6" s="21">
         <v>22</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="20"/>
+      <c r="E6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>89</v>
+      </c>
       <c r="G6" s="24">
-        <v>47</v>
+        <f t="shared" ref="G6:G17" si="0">G5+1</f>
+        <v>48</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I6" s="25"/>
-      <c r="J6" s="38">
+      <c r="J6" s="40">
         <v>68</v>
       </c>
-      <c r="K6" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="74"/>
-    </row>
-    <row r="7" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+    </row>
+    <row r="7" spans="1:47" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1309,59 +1321,65 @@
         <v>42</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="D7" s="21">
+        <v>23</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>90</v>
+      </c>
       <c r="G7" s="24">
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="25"/>
-      <c r="J7" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-    </row>
-    <row r="8" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="J7" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+    </row>
+    <row r="8" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="21">
-        <v>23</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>89</v>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="24">
+        <v>24</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="G8" s="24">
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I8" s="25"/>
-      <c r="J8" s="40">
+      <c r="J8" s="42">
         <v>69</v>
       </c>
-      <c r="K8" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="K8" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:47" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -1369,65 +1387,63 @@
         <v>74</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="21">
-        <v>24</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>90</v>
-      </c>
+      <c r="D9" s="24">
+        <v>25</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="25"/>
       <c r="G9" s="24">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>54</v>
-      </c>
       <c r="I9" s="25"/>
-      <c r="J9" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
+      <c r="J9" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+    <row r="10" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>91</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F10" s="25"/>
       <c r="G10" s="24">
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I10" s="25"/>
-      <c r="J10" s="42">
+      <c r="J10" s="44">
         <v>70</v>
       </c>
-      <c r="K10" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
+      <c r="K10" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -1436,29 +1452,30 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F11" s="25"/>
-      <c r="G11" s="24">
-        <v>52</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
+      <c r="G11" s="21">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -1467,97 +1484,104 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="24">
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="44">
+        <v>25</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="46">
         <v>71</v>
       </c>
-      <c r="K12" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="K12" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
+    <row r="13" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="24">
-        <v>28</v>
+        <f>D12+1</f>
+        <v>29</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="25"/>
-      <c r="G13" s="21">
-        <v>54</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="G13" s="24">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>8</v>
       </c>
-      <c r="B14" s="76" t="s">
-        <v>114</v>
+      <c r="B14" s="75" t="s">
+        <v>113</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>101</v>
       </c>
       <c r="D14" s="24">
-        <v>29</v>
+        <f t="shared" ref="D14:D29" si="1">D13+1</f>
+        <v>30</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="24">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="46">
+        <v>32</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="67">
         <v>72</v>
       </c>
-      <c r="K14" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
+      <c r="K14" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="68"/>
+      <c r="M14" s="70" t="s">
+        <v>105</v>
+      </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>9</v>
       </c>
@@ -1566,25 +1590,31 @@
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="24">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="24">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="I15" s="25"/>
-      <c r="J15" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
+      <c r="J15" s="71">
+        <v>73</v>
+      </c>
+      <c r="K15" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73" t="s">
+        <v>104</v>
+      </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
     </row>
@@ -1597,29 +1627,29 @@
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="24">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="24">
-        <v>57</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="I16" s="25"/>
-      <c r="J16" s="67">
-        <v>73</v>
-      </c>
-      <c r="K16" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="68"/>
-      <c r="M16" s="70" t="s">
-        <v>105</v>
-      </c>
+      <c r="J16" s="48">
+        <v>74</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="49"/>
+      <c r="M16" s="69"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
@@ -1634,29 +1664,29 @@
         <v>102</v>
       </c>
       <c r="D17" s="24">
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="24">
-        <v>58</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I17" s="25"/>
-      <c r="J17" s="71">
-        <v>74</v>
-      </c>
-      <c r="K17" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73" t="s">
-        <v>104</v>
-      </c>
+      <c r="J17" s="50">
+        <v>75</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="49"/>
+      <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -1669,27 +1699,24 @@
         <v>103</v>
       </c>
       <c r="D18" s="24">
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="F18" s="25"/>
-      <c r="G18" s="24">
-        <v>59</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="48">
-        <v>75</v>
-      </c>
-      <c r="K18" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="49"/>
-      <c r="M18" s="69"/>
+      <c r="G18" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60">
@@ -1700,29 +1727,31 @@
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="24">
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="F19" s="25"/>
-      <c r="G19" s="24">
+      <c r="G19" s="30">
+        <f>G17+1</f>
         <v>60</v>
       </c>
-      <c r="H19" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="50">
+      <c r="H19" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="58">
         <v>76</v>
       </c>
-      <c r="K19" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="69"/>
-    </row>
-    <row r="20" spans="1:19" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+    </row>
+    <row r="20" spans="1:19" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>14</v>
       </c>
@@ -1732,55 +1761,60 @@
       <c r="C20" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="24">
-        <v>35</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-    </row>
-    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="75" t="s">
+      <c r="D20" s="21">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+    </row>
+    <row r="21" spans="1:19" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="24">
-        <v>36</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="30">
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="27">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="32">
+        <f>G19+1</f>
         <v>61</v>
       </c>
-      <c r="H21" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="58">
+      <c r="H21" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="33"/>
+      <c r="J21" s="56">
         <v>77</v>
       </c>
-      <c r="K21" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-    </row>
-    <row r="22" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+    </row>
+    <row r="22" spans="1:19" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>15</v>
       </c>
@@ -1788,224 +1822,226 @@
         <v>96</v>
       </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="21">
-        <v>37</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
+      <c r="D22" s="24">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="32">
+        <f>G21+1</f>
+        <v>62</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>16</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="27">
-        <v>38</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>28</v>
-      </c>
+      <c r="D23" s="24">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="25"/>
       <c r="G23" s="32">
-        <v>62</v>
+        <f t="shared" ref="G23:G24" si="2">G22+1</f>
+        <v>63</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" s="33"/>
-      <c r="J23" s="56">
+      <c r="J23" s="53">
         <v>78</v>
       </c>
-      <c r="K23" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-    </row>
-    <row r="24" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+    </row>
+    <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>17</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="24">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>92</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F24" s="25"/>
       <c r="G24" s="32">
-        <v>63</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I24" s="33"/>
-      <c r="J24" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-    </row>
-    <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="J24" s="53">
+        <v>79</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+    </row>
+    <row r="25" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="21">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+    </row>
+    <row r="26" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
         <v>18</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="24">
-        <v>40</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="32">
-        <v>64</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="53">
-        <v>79</v>
-      </c>
-      <c r="K25" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-    </row>
-    <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
+      <c r="B26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="16"/>
       <c r="D26" s="24">
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="32">
+        <v>57</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="34">
         <v>65</v>
       </c>
-      <c r="H26" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="53">
+      <c r="H26" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="51">
         <v>80</v>
       </c>
-      <c r="K26" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
+      <c r="K26" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
     </row>
     <row r="27" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>19</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="21">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="F27" s="22"/>
-      <c r="G27" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
+      <c r="G27" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
     </row>
     <row r="28" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+      <c r="A28" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="24">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="36">
+        <v>66</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="37"/>
+    </row>
+    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
         <v>20</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="24">
-        <v>43</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="34">
-        <v>66</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="51">
-        <v>81</v>
-      </c>
-      <c r="K28" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-    </row>
-    <row r="29" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="21">
-        <v>44</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B29" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="24">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N32" s="2"/>
@@ -2035,29 +2071,29 @@
     <row r="47" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J18:M18"/>
     <mergeCell ref="J20:M20"/>
     <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J5:M5"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/LanguageFamily.xlsx
+++ b/data/LanguageFamily.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuto\Documents\MATLAB\projects\song-speech-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA998419-D88E-48C0-A66A-E66CCC45AED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A81857-133B-4767-816A-3058C8C8E301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="0" windowWidth="19470" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1185" windowWidth="23940" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SubFamily-level" sheetId="7" r:id="rId1"/>
+    <sheet name="SubFamily-level_Final" sheetId="8" r:id="rId1"/>
+    <sheet name="SubFamily-level" sheetId="7" r:id="rId2"/>
+    <sheet name="Languages" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="182">
   <si>
     <t>Afro-Asiatic</t>
   </si>
@@ -265,210 +267,415 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>Luo (dholuo) (Luo (Kenya and Tanzania))</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Puri Kwaytikindo (Puri)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>HainanHua (Min Nan Chinese)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Cantonese (Yue Chinese)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Yanomami (Yanomám)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Fante (Akan)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>English [Washington D.C.]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Modern Hebrew [Jerusalem]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Modern Hebrew [Tel Aviv]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Palestinian Arabic (South Levantine Arabic)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Ainu</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Aynu (Hokkaido Ainu)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>English [Washington]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Hindi</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Spanish [Bogotá]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Pano-Tacanan</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Matís</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Myanmar (Burmese)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>North Azerbaijani</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Euskara (Basque) [Errenteria]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Euskara (Basque) [Hondarribia]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Dutch [Heemstede]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Dutch [Nairobi]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Flemish (Dutch)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Rikbaktsa</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Nuclear-Macro-Jê</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Baltic</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Celtic</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Germanic</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Indic</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Iranian</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Romance</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Slavic</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Balinese</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>English [Michigan]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Macedonian</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Tai-Kadai</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Thai</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Bantu</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Defoid</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Tano</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Chinese</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Burmese-Lolo</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Spanish [Osorno]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Tsesungún (Huilliche)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Te Reo Māori (Māori) [Auckland]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Te Reo Māori (Māori) [Wellington]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Punjabi (Eastern Panjabi)</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Slovenian</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>IsiXhosa (Xhosa)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Modern Hebrew [Jerusalem]</t>
+  </si>
+  <si>
+    <t>Modern Hebrew [Tel Aviv]</t>
+  </si>
+  <si>
+    <t>Tunisian Arabic</t>
+  </si>
+  <si>
+    <t>Aynu (Hokkaido Ainu)</t>
+  </si>
+  <si>
+    <t>Tsesungún (Huilliche)</t>
+  </si>
+  <si>
+    <t>IsiXhosa (Xhosa)</t>
+  </si>
+  <si>
+    <t>Kiswahili (Swahili)</t>
+  </si>
+  <si>
+    <t>Ronga</t>
+  </si>
+  <si>
+    <t>Yoruba</t>
+  </si>
+  <si>
+    <t>Fante (Akan)</t>
+  </si>
+  <si>
+    <t>Twi (Akan)</t>
+  </si>
+  <si>
+    <t>Wolof</t>
+  </si>
+  <si>
+    <t>Balinese</t>
+  </si>
+  <si>
+    <t>Te Reo Māori (Māori) [Auckland]</t>
+  </si>
+  <si>
+    <t>Te Reo Māori (Māori) [Wellington]</t>
+  </si>
+  <si>
+    <t>Euskara (Basque) [Errenteria]</t>
+  </si>
+  <si>
+    <t>Língua Kuikuro (Kuikúro-Kalapálo)</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>Gaeilge (Irish)</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>Dutch [Heemstede]</t>
+  </si>
+  <si>
+    <t>Dutch [Nairobi]</t>
+  </si>
+  <si>
+    <t>Flemish (Dutch)</t>
+  </si>
+  <si>
+    <t>English [Indiana]</t>
+  </si>
+  <si>
+    <t>English [Michigan]</t>
+  </si>
+  <si>
+    <t>English [Nevada]</t>
+  </si>
+  <si>
+    <t>English [Newry]</t>
+  </si>
+  <si>
+    <t>English [Washington]</t>
+  </si>
+  <si>
+    <t>English [Washington D.C.]</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>Svenska (Swedish)</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>Western Farsi [Isfahan]</t>
+  </si>
+  <si>
+    <t>Western Farsi [Tehran]</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Portuguese [Porto]</t>
+  </si>
+  <si>
+    <t>Portuguese [São Paulo]</t>
+  </si>
+  <si>
+    <t>Spanish [Bogotá]</t>
+  </si>
+  <si>
+    <t>Spanish [Montevideo]</t>
+  </si>
+  <si>
+    <t>Spanish [Santiago]</t>
+  </si>
+  <si>
+    <t>Spanish [Osorno]</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>Macedonian</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Slovenian</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>Japanese [Hokkaido]</t>
+  </si>
+  <si>
+    <t>Japanese [Hyogo]</t>
+  </si>
+  <si>
+    <t>Japanese [Tokyo]</t>
+  </si>
+  <si>
+    <t>Northern Amami-Oshima</t>
+  </si>
+  <si>
+    <t>Luo (dholuo) (Luo (Kenya and Tanzania))</t>
+  </si>
+  <si>
+    <t>Rikbaktsa</t>
+  </si>
+  <si>
     <t>Ngarigu (Southern Inland Yuin)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Luo (dholuo) (Luo (Kenya and Tanzania))</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Puri Kwaytikindo (Puri)</t>
-    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Myanmar (Burmese)</t>
+  </si>
+  <si>
+    <t>Cantonese (Yue Chinese)</t>
   </si>
   <si>
     <t>HainanHua (Min Nan Chinese)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Cantonese (Yue Chinese)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Yanomami (Yanomám)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Fante (Akan)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>English [Washington D.C.]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Modern Hebrew [Jerusalem]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Modern Hebrew [Tel Aviv]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Palestinian Arabic (South Levantine Arabic)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Ainu</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Aynu (Hokkaido Ainu)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>English [Washington]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Hindi</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Spanish [Bogotá]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Pano-Tacanan</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Matís</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Myanmar (Burmese)</t>
-    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Mandarin Chinese</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Mbyá-Guaraní</t>
   </si>
   <si>
     <t>North Azerbaijani</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Euskara (Basque) [Errenteria]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Euskara (Basque) [Hondarribia]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Dutch [Heemstede]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Dutch [Nairobi]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Flemish (Dutch)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Rikbaktsa</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Nuclear-Macro-Jê</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Baltic</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Celtic</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Germanic</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Indic</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Iranian</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Romance</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Slavic</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Balinese</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>English [Michigan]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Macedonian</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Tai-Kadai</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Thai</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Bantu</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Defoid</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Tano</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Chinese</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Burmese-Lolo</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Spanish [Osorno]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Tsesungún (Huilliche)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Te Reo Māori (Māori) [Auckland]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Te Reo Māori (Māori) [Wellington]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Punjabi (Eastern Panjabi)</t>
-  </si>
-  <si>
-    <t>Urdu</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Slovenian</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>IsiXhosa (Xhosa)</t>
+  </si>
+  <si>
+    <t>Ngarigu</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Rukai</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -732,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -905,8 +1112,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,14 +1352,908 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48170176-2A94-4B45-9A23-D258409355CF}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AU47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="2.85546875" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" customWidth="1"/>
+    <col min="17" max="17" width="33.7109375" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" customWidth="1"/>
+    <col min="19" max="19" width="33.7109375" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" customWidth="1"/>
+    <col min="21" max="21" width="33.7109375" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" customWidth="1"/>
+    <col min="24" max="24" width="2.85546875" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" customWidth="1"/>
+    <col min="26" max="26" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.140625" customWidth="1"/>
+    <col min="29" max="29" width="4.42578125" customWidth="1"/>
+    <col min="30" max="30" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+    </row>
+    <row r="2" spans="1:47" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="J3" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+    </row>
+    <row r="4" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="21">
+        <v>19</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="24">
+        <f>D28+1</f>
+        <v>44</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="38">
+        <v>64</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="39"/>
+      <c r="M4" s="74"/>
+    </row>
+    <row r="5" spans="1:47" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="21">
+        <v>20</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="24">
+        <f t="shared" ref="G5:G16" si="0">G4+1</f>
+        <v>45</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+    </row>
+    <row r="6" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="24">
+        <v>21</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="24">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="40">
+        <v>65</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+    </row>
+    <row r="7" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="24">
+        <v>22</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="24">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+    </row>
+    <row r="8" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="24">
+        <v>23</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="42">
+        <v>66</v>
+      </c>
+      <c r="K8" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="24">
+        <v>24</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+    </row>
+    <row r="10" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="24">
+        <v>25</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="46">
+        <v>67</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+    </row>
+    <row r="11" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="24">
+        <v>26</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>6</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="24">
+        <v>27</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="67">
+        <v>68</v>
+      </c>
+      <c r="K12" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="68"/>
+      <c r="M12" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+    </row>
+    <row r="13" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>7</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="24">
+        <v>28</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="24">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="71">
+        <v>69</v>
+      </c>
+      <c r="K13" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="72"/>
+      <c r="M13" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+    </row>
+    <row r="14" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="60">
+        <v>8</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="24">
+        <v>29</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="24">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="48">
+        <v>70</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="49"/>
+      <c r="M14" s="69"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+    </row>
+    <row r="15" spans="1:47" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="62">
+        <v>9</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="24">
+        <v>30</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="50">
+        <v>71</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="49"/>
+      <c r="M15" s="69"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+    </row>
+    <row r="16" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>10</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="24">
+        <v>31</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="24">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60">
+        <v>11</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="24">
+        <v>32</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="58">
+        <v>72</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+    </row>
+    <row r="18" spans="1:19" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>12</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="21">
+        <v>33</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="30">
+        <f>G16+1</f>
+        <v>57</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+    </row>
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="27">
+        <v>34</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="56">
+        <v>73</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+    </row>
+    <row r="20" spans="1:19" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>13</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="24">
+        <v>35</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="32">
+        <f>G18+1</f>
+        <v>58</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+    </row>
+    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>14</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="24">
+        <v>36</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="32">
+        <f>G20+1</f>
+        <v>59</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="33"/>
+      <c r="J21" s="53">
+        <v>74</v>
+      </c>
+      <c r="K21" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+    </row>
+    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>15</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="24">
+        <v>37</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="32">
+        <f t="shared" ref="G22:G23" si="1">G21+1</f>
+        <v>60</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="53">
+        <v>75</v>
+      </c>
+      <c r="K22" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="21">
+        <v>38</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="32">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>16</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="24">
+        <v>39</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+    </row>
+    <row r="25" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="21">
+        <v>40</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="34">
+        <v>62</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <v>17</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="24">
+        <v>41</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+    </row>
+    <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="24">
+        <v>42</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="36">
+        <v>63</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="37"/>
+    </row>
+    <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="19">
+        <v>18</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="24">
+        <v>43</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="J20:M20"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D56EAD0-EB25-4A4E-9EC4-C37E9FF0785F}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1197,123 +2307,122 @@
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
     </row>
-    <row r="2" spans="1:47" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
+    <row r="2" spans="1:47" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="J3" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="J3" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>21</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="20"/>
+      <c r="E4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="24">
         <f>D29+1</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="38">
+        <v>13</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="36">
+        <f>G28+1</f>
         <v>67</v>
       </c>
-      <c r="K4" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="74"/>
+      <c r="K4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
     </row>
     <row r="5" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="D5" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="24">
         <f>G4+1</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I5" s="25"/>
-      <c r="J5" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-    </row>
-    <row r="6" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+    </row>
+    <row r="6" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>22</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>89</v>
-      </c>
+      <c r="E6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="20"/>
       <c r="G6" s="24">
-        <f t="shared" ref="G6:G17" si="0">G5+1</f>
-        <v>48</v>
+        <f>G5+1</f>
+        <v>47</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I6" s="25"/>
-      <c r="J6" s="40">
+      <c r="J6" s="38">
+        <f>J4+1</f>
         <v>68</v>
       </c>
-      <c r="K6" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-    </row>
-    <row r="7" spans="1:47" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="74"/>
+    </row>
+    <row r="7" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1321,267 +2430,273 @@
         <v>42</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="21">
+      <c r="D7" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="24">
+        <f>G6+1</f>
+        <v>48</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+    </row>
+    <row r="8" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="21">
         <v>23</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G19" si="0">G7+1</f>
+        <v>49</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="40">
+        <f>J6+1</f>
+        <v>69</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:47" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="21">
+        <f>D8+1</f>
+        <v>24</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="24">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-    </row>
-    <row r="8" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="24">
-        <v>24</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="24">
+      <c r="F9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="24">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H8" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="42">
-        <v>69</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-    </row>
-    <row r="9" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="24">
+      <c r="H9" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+    </row>
+    <row r="10" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="24">
+        <f t="shared" ref="D10:D29" si="1">D9+1</f>
         <v>25</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24">
+      <c r="E10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="24">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-    </row>
-    <row r="10" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="24">
+      <c r="H10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="42">
+        <f>J8+1</f>
+        <v>70</v>
+      </c>
+      <c r="K10" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+    </row>
+    <row r="11" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="24">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24">
+      <c r="E11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="44">
-        <v>70</v>
-      </c>
-      <c r="K10" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-    </row>
-    <row r="11" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="24">
-        <v>27</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
+      <c r="H11" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="24">
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="24">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="46">
+        <v>49</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="44">
+        <f>J10+1</f>
         <v>71</v>
       </c>
-      <c r="K12" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
+      <c r="K12" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="76" t="s">
+    <row r="13" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="24">
-        <f>D12+1</f>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="25"/>
-      <c r="G13" s="24">
+      <c r="G13" s="21">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
+        <v>54</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>8</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="24">
-        <f t="shared" ref="D14:D29" si="1">D13+1</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="24">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="67">
+        <v>25</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="46">
+        <f>J12+1</f>
         <v>72</v>
       </c>
-      <c r="K14" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="68"/>
-      <c r="M14" s="70" t="s">
-        <v>105</v>
-      </c>
+      <c r="K14" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:47" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>9</v>
       </c>
@@ -1591,30 +2706,26 @@
       <c r="C15" s="64"/>
       <c r="D15" s="24">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="24">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="I15" s="25"/>
-      <c r="J15" s="71">
-        <v>73</v>
-      </c>
-      <c r="K15" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73" t="s">
-        <v>104</v>
-      </c>
+      <c r="J15" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
     </row>
@@ -1628,28 +2739,31 @@
       <c r="C16" s="65"/>
       <c r="D16" s="24">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="24">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="I16" s="25"/>
-      <c r="J16" s="48">
-        <v>74</v>
-      </c>
-      <c r="K16" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="49"/>
-      <c r="M16" s="69"/>
+      <c r="J16" s="67">
+        <f>J14+1</f>
+        <v>73</v>
+      </c>
+      <c r="K16" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="68"/>
+      <c r="M16" s="70" t="s">
+        <v>104</v>
+      </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
@@ -1661,62 +2775,71 @@
         <v>21</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="24">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="24">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I17" s="25"/>
-      <c r="J17" s="50">
-        <v>75</v>
-      </c>
-      <c r="K17" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="69"/>
+      <c r="J17" s="71">
+        <f>J16+1</f>
+        <v>74</v>
+      </c>
+      <c r="K17" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="24">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F18" s="25"/>
-      <c r="G18" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
+      <c r="G18" s="24">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="48">
+        <f t="shared" ref="J18:J19" si="2">J17+1</f>
+        <v>75</v>
+      </c>
+      <c r="K18" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="49"/>
+      <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60">
@@ -1728,30 +2851,31 @@
       <c r="C19" s="65"/>
       <c r="D19" s="24">
         <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="24">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="30">
-        <f>G17+1</f>
-        <v>60</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="58">
+      <c r="I19" s="25"/>
+      <c r="J19" s="50">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="K19" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-    </row>
-    <row r="20" spans="1:19" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="49"/>
+      <c r="M19" s="69"/>
+    </row>
+    <row r="20" spans="1:19" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>14</v>
       </c>
@@ -1761,287 +2885,301 @@
       <c r="C20" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="24">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+    </row>
+    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="24">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-    </row>
-    <row r="21" spans="1:19" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="27">
+      <c r="E21" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="30">
+        <f>G19+1</f>
+        <v>61</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="58">
+        <f>J19+1</f>
+        <v>77</v>
+      </c>
+      <c r="K21" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+    </row>
+    <row r="22" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>15</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="21">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="32">
-        <f>G19+1</f>
-        <v>61</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="56">
-        <v>77</v>
-      </c>
-      <c r="K21" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-    </row>
-    <row r="22" spans="1:19" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>15</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="24">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="32">
-        <f>G21+1</f>
-        <v>62</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
+      <c r="E22" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>16</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>108</v>
+      <c r="B23" s="79" t="s">
+        <v>181</v>
       </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="24">
+      <c r="D23" s="27">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="G23" s="32">
-        <f t="shared" ref="G23:G24" si="2">G22+1</f>
-        <v>63</v>
+        <f>G21+1</f>
+        <v>62</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I23" s="33"/>
-      <c r="J23" s="53">
+      <c r="J23" s="56">
+        <f>J21+1</f>
         <v>78</v>
       </c>
-      <c r="K23" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-    </row>
-    <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K23" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+    </row>
+    <row r="24" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>17</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="24">
         <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="32">
+        <f>G23+1</f>
+        <v>63</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+    </row>
+    <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>18</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="24">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="32">
-        <f t="shared" si="2"/>
+      <c r="E25" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="32">
+        <f t="shared" ref="G25:G26" si="3">G24+1</f>
         <v>64</v>
       </c>
-      <c r="H24" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="53">
+      <c r="H25" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="53">
+        <f>J23+1</f>
         <v>79</v>
       </c>
-      <c r="K24" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-    </row>
-    <row r="25" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76" t="s">
+      <c r="K25" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+    </row>
+    <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="21">
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="24">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-    </row>
-    <row r="26" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
-        <v>18</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="24">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
       <c r="E26" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="34">
+        <v>109</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="32">
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="H26" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="51">
+      <c r="H26" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="53">
+        <f>J25+1</f>
         <v>80</v>
       </c>
-      <c r="K26" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
+      <c r="K26" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
     </row>
     <row r="27" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>19</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="21">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="F27" s="22"/>
-      <c r="G27" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
+      <c r="G27" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
     </row>
     <row r="28" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
+      <c r="A28" s="15">
+        <v>20</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="16"/>
       <c r="D28" s="24">
         <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="34">
+        <f>G26+1</f>
+        <v>66</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="51">
+        <f>J26+1</f>
+        <v>81</v>
+      </c>
+      <c r="K28" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+    </row>
+    <row r="29" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="21">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="36">
-        <v>66</v>
-      </c>
-      <c r="H28" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="37"/>
-    </row>
-    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
-        <v>20</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="24">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="E29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N32" s="2"/>
@@ -2071,32 +3209,393 @@
     <row r="47" spans="14:14" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="J5:M5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J15:M15"/>
     <mergeCell ref="G27:I27"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J27:M27"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4AE103-CEEB-48A6-8BC5-0ACFCAA7A33C}">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="76" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="76" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="76"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="76" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="76" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="76" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="76" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>